--- a/doc/MPB 欄位規格.xlsx
+++ b/doc/MPB 欄位規格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://walsinsmc-my.sharepoint.com/personal/mueller_tsai_walsin_com/Documents/公司文件/MPB (線纜)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="14_{55C59A21-BEBC-4BF9-965E-3C5A65081BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6AB3ADE-4106-432B-9047-5C62DB43BA0F}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="14_{55C59A21-BEBC-4BF9-965E-3C5A65081BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30A92297-EFD8-4860-9C0E-1756E8E3C594}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <sheet name="MPB欄位_0510_ahsin" sheetId="11" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">線纜MPB欄位規格!$A$1:$U$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">線纜MPB欄位規格!$A$1:$X$105</definedName>
     <definedName name="資料來源" localSheetId="8">#REF!</definedName>
     <definedName name="資料來源" localSheetId="9">#REF!</definedName>
   </definedNames>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="914">
   <si>
     <t>分區</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -9698,10 +9698,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>physicalProperty</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>physicalPropCardNo</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -9974,6 +9970,25 @@
   </si>
   <si>
     <t>DATE_FORMAT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDIT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯讀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>phyPropMain</t>
+  </si>
+  <si>
+    <t>子表欄寬</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -11279,7 +11294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="427">
+  <cellXfs count="431">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12527,7 +12542,19 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="67" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="67" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="19" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -16904,11 +16931,11 @@
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
-  <dimension ref="A1:T106"/>
+  <dimension ref="A1:W106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -16922,19 +16949,20 @@
     <col min="8" max="8" width="28.375" style="300" customWidth="1"/>
     <col min="9" max="9" width="15.625" style="300" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.125" style="300" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="301" customWidth="1"/>
-    <col min="12" max="12" width="18.25" style="300" customWidth="1"/>
-    <col min="13" max="13" width="18.25" style="351" customWidth="1"/>
-    <col min="14" max="14" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.625" style="300" customWidth="1"/>
-    <col min="16" max="16" width="11.625" style="299" customWidth="1"/>
-    <col min="17" max="17" width="28.5" style="300" customWidth="1"/>
-    <col min="18" max="18" width="18.375" style="300" customWidth="1"/>
-    <col min="19" max="19" width="54.625" style="295" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="295"/>
+    <col min="11" max="11" width="10.25" style="300" customWidth="1"/>
+    <col min="12" max="14" width="8.75" style="301" customWidth="1"/>
+    <col min="15" max="15" width="18.25" style="300" customWidth="1"/>
+    <col min="16" max="16" width="18.25" style="351" customWidth="1"/>
+    <col min="17" max="17" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.625" style="300" customWidth="1"/>
+    <col min="19" max="19" width="11.625" style="299" customWidth="1"/>
+    <col min="20" max="20" width="28.5" style="300" customWidth="1"/>
+    <col min="21" max="21" width="18.375" style="300" customWidth="1"/>
+    <col min="22" max="22" width="54.625" style="295" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="295"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="26.25" customHeight="1">
+    <row r="1" spans="1:23" ht="26.25" customHeight="1">
       <c r="A1" s="310" t="s">
         <v>0</v>
       </c>
@@ -16945,10 +16973,10 @@
         <v>834</v>
       </c>
       <c r="D1" s="348" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E1" s="348" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F1" s="348"/>
       <c r="G1" s="296" t="s">
@@ -16963,35 +16991,44 @@
       <c r="J1" s="349" t="s">
         <v>826</v>
       </c>
-      <c r="K1" s="311" t="s">
+      <c r="K1" s="349" t="s">
+        <v>913</v>
+      </c>
+      <c r="L1" s="311" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="297" t="s">
+      <c r="M1" s="428" t="s">
+        <v>909</v>
+      </c>
+      <c r="N1" s="428" t="s">
+        <v>911</v>
+      </c>
+      <c r="O1" s="297" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="348" t="s">
-        <v>851</v>
-      </c>
-      <c r="N1" s="350" t="s">
+      <c r="P1" s="429" t="s">
         <v>850</v>
       </c>
-      <c r="O1" s="297" t="s">
+      <c r="Q1" s="350" t="s">
+        <v>849</v>
+      </c>
+      <c r="R1" s="297" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="312" t="s">
+      <c r="S1" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="297" t="s">
+      <c r="T1" s="297" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="297" t="s">
+      <c r="U1" s="297" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="297" t="s">
+      <c r="V1" s="297" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="26.25" customHeight="1">
+    <row r="2" spans="1:23" ht="26.25" customHeight="1">
       <c r="A2" s="317" t="s">
         <v>11</v>
       </c>
@@ -17016,21 +17053,26 @@
         <v>13</v>
       </c>
       <c r="J2" s="317"/>
-      <c r="K2" s="319" t="s">
+      <c r="K2" s="317"/>
+      <c r="L2" s="319" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="317"/>
-      <c r="M2" s="352"/>
-      <c r="O2" s="320"/>
-      <c r="P2" s="321" t="s">
+      <c r="M2" s="319"/>
+      <c r="N2" s="319" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="317"/>
+      <c r="P2" s="352"/>
+      <c r="R2" s="320"/>
+      <c r="S2" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="320"/>
-      <c r="R2" s="320"/>
-      <c r="S2" s="317"/>
-      <c r="T2" s="298"/>
-    </row>
-    <row r="3" spans="1:20" ht="26.25" customHeight="1">
+      <c r="T2" s="320"/>
+      <c r="U2" s="320"/>
+      <c r="V2" s="317"/>
+      <c r="W2" s="298"/>
+    </row>
+    <row r="3" spans="1:23" ht="26.25" customHeight="1">
       <c r="A3" s="317" t="s">
         <v>11</v>
       </c>
@@ -17049,21 +17091,26 @@
         <v>13</v>
       </c>
       <c r="J3" s="317"/>
-      <c r="K3" s="319" t="s">
+      <c r="K3" s="317"/>
+      <c r="L3" s="319" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="317"/>
-      <c r="M3" s="352"/>
-      <c r="O3" s="320"/>
-      <c r="P3" s="321" t="s">
+      <c r="M3" s="319"/>
+      <c r="N3" s="319" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="317"/>
+      <c r="P3" s="352"/>
+      <c r="R3" s="320"/>
+      <c r="S3" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="320"/>
-      <c r="R3" s="320"/>
-      <c r="S3" s="317"/>
-      <c r="T3" s="298"/>
-    </row>
-    <row r="4" spans="1:20" ht="26.25" customHeight="1">
+      <c r="T3" s="320"/>
+      <c r="U3" s="320"/>
+      <c r="V3" s="317"/>
+      <c r="W3" s="298"/>
+    </row>
+    <row r="4" spans="1:23" ht="26.25" customHeight="1">
       <c r="A4" s="317" t="s">
         <v>11</v>
       </c>
@@ -17082,19 +17129,24 @@
         <v>13</v>
       </c>
       <c r="J4" s="317"/>
-      <c r="K4" s="319" t="s">
+      <c r="K4" s="317"/>
+      <c r="L4" s="319" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="317"/>
-      <c r="M4" s="352"/>
-      <c r="O4" s="320"/>
-      <c r="P4" s="322"/>
-      <c r="Q4" s="320"/>
+      <c r="M4" s="319"/>
+      <c r="N4" s="319" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="317"/>
+      <c r="P4" s="352"/>
       <c r="R4" s="320"/>
-      <c r="S4" s="317"/>
-      <c r="T4" s="298"/>
-    </row>
-    <row r="5" spans="1:20" ht="26.25" customHeight="1">
+      <c r="S4" s="322"/>
+      <c r="T4" s="320"/>
+      <c r="U4" s="320"/>
+      <c r="V4" s="317"/>
+      <c r="W4" s="298"/>
+    </row>
+    <row r="5" spans="1:23" ht="26.25" customHeight="1">
       <c r="A5" s="317" t="s">
         <v>11</v>
       </c>
@@ -17113,19 +17165,24 @@
         <v>13</v>
       </c>
       <c r="J5" s="317"/>
-      <c r="K5" s="319" t="s">
+      <c r="K5" s="317"/>
+      <c r="L5" s="319" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="317"/>
-      <c r="M5" s="352"/>
-      <c r="O5" s="320"/>
-      <c r="P5" s="322"/>
-      <c r="Q5" s="320"/>
+      <c r="M5" s="319"/>
+      <c r="N5" s="319" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="317"/>
+      <c r="P5" s="352"/>
       <c r="R5" s="320"/>
-      <c r="S5" s="317"/>
-      <c r="T5" s="298"/>
-    </row>
-    <row r="6" spans="1:20" ht="26.25" customHeight="1">
+      <c r="S5" s="322"/>
+      <c r="T5" s="320"/>
+      <c r="U5" s="320"/>
+      <c r="V5" s="317"/>
+      <c r="W5" s="298"/>
+    </row>
+    <row r="6" spans="1:23" ht="26.25" customHeight="1">
       <c r="A6" s="317" t="s">
         <v>11</v>
       </c>
@@ -17141,29 +17198,34 @@
         <v>24</v>
       </c>
       <c r="I6" s="318" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J6" s="317" t="s">
-        <v>847</v>
-      </c>
-      <c r="K6" s="319" t="s">
+        <v>846</v>
+      </c>
+      <c r="K6" s="317"/>
+      <c r="L6" s="319" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="317" t="s">
-        <v>856</v>
-      </c>
-      <c r="M6" s="317"/>
+      <c r="M6" s="319"/>
       <c r="N6" s="319" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="320"/>
-      <c r="P6" s="322"/>
-      <c r="Q6" s="320"/>
+      <c r="O6" s="317" t="s">
+        <v>855</v>
+      </c>
+      <c r="P6" s="317"/>
+      <c r="Q6" s="319" t="s">
+        <v>49</v>
+      </c>
       <c r="R6" s="320"/>
-      <c r="S6" s="317"/>
-      <c r="T6" s="298"/>
-    </row>
-    <row r="7" spans="1:20" ht="26.25" customHeight="1">
+      <c r="S6" s="322"/>
+      <c r="T6" s="320"/>
+      <c r="U6" s="320"/>
+      <c r="V6" s="317"/>
+      <c r="W6" s="298"/>
+    </row>
+    <row r="7" spans="1:23" ht="26.25" customHeight="1">
       <c r="A7" s="317" t="s">
         <v>11</v>
       </c>
@@ -17179,29 +17241,34 @@
         <v>26</v>
       </c>
       <c r="I7" s="318" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J7" s="317" t="s">
-        <v>848</v>
-      </c>
-      <c r="K7" s="319" t="s">
+        <v>847</v>
+      </c>
+      <c r="K7" s="317"/>
+      <c r="L7" s="319" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="317" t="s">
-        <v>849</v>
-      </c>
-      <c r="M7" s="317"/>
+      <c r="M7" s="319"/>
       <c r="N7" s="319" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="320"/>
-      <c r="P7" s="322"/>
-      <c r="Q7" s="320"/>
+      <c r="O7" s="317" t="s">
+        <v>848</v>
+      </c>
+      <c r="P7" s="317"/>
+      <c r="Q7" s="319" t="s">
+        <v>49</v>
+      </c>
       <c r="R7" s="320"/>
-      <c r="S7" s="317"/>
-      <c r="T7" s="298"/>
-    </row>
-    <row r="8" spans="1:20" ht="26.25" customHeight="1">
+      <c r="S7" s="322"/>
+      <c r="T7" s="320"/>
+      <c r="U7" s="320"/>
+      <c r="V7" s="317"/>
+      <c r="W7" s="298"/>
+    </row>
+    <row r="8" spans="1:23" ht="26.25" customHeight="1">
       <c r="A8" s="317" t="s">
         <v>11</v>
       </c>
@@ -17220,19 +17287,24 @@
         <v>13</v>
       </c>
       <c r="J8" s="317"/>
-      <c r="K8" s="319" t="s">
+      <c r="K8" s="317"/>
+      <c r="L8" s="319" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="317"/>
-      <c r="M8" s="352"/>
-      <c r="O8" s="320"/>
-      <c r="P8" s="322"/>
-      <c r="Q8" s="320"/>
+      <c r="M8" s="319"/>
+      <c r="N8" s="319" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="317"/>
+      <c r="P8" s="352"/>
       <c r="R8" s="320"/>
-      <c r="S8" s="317"/>
-      <c r="T8" s="298"/>
-    </row>
-    <row r="9" spans="1:20" ht="26.25" customHeight="1">
+      <c r="S8" s="322"/>
+      <c r="T8" s="320"/>
+      <c r="U8" s="320"/>
+      <c r="V8" s="317"/>
+      <c r="W8" s="298"/>
+    </row>
+    <row r="9" spans="1:23" ht="26.25" customHeight="1">
       <c r="A9" s="317" t="s">
         <v>11</v>
       </c>
@@ -17251,19 +17323,24 @@
         <v>13</v>
       </c>
       <c r="J9" s="317"/>
-      <c r="K9" s="319" t="s">
+      <c r="K9" s="317"/>
+      <c r="L9" s="319" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="317"/>
-      <c r="M9" s="352"/>
-      <c r="O9" s="320"/>
-      <c r="P9" s="322"/>
-      <c r="Q9" s="320"/>
+      <c r="M9" s="319"/>
+      <c r="N9" s="319" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="317"/>
+      <c r="P9" s="352"/>
       <c r="R9" s="320"/>
-      <c r="S9" s="317"/>
-      <c r="T9" s="298"/>
-    </row>
-    <row r="10" spans="1:20" ht="26.25" customHeight="1">
+      <c r="S9" s="322"/>
+      <c r="T9" s="320"/>
+      <c r="U9" s="320"/>
+      <c r="V9" s="317"/>
+      <c r="W9" s="298"/>
+    </row>
+    <row r="10" spans="1:23" ht="26.25" customHeight="1">
       <c r="A10" s="317" t="s">
         <v>11</v>
       </c>
@@ -17282,19 +17359,24 @@
         <v>13</v>
       </c>
       <c r="J10" s="317"/>
-      <c r="K10" s="319" t="s">
+      <c r="K10" s="317"/>
+      <c r="L10" s="319" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="317"/>
-      <c r="M10" s="352"/>
-      <c r="O10" s="320"/>
-      <c r="P10" s="322"/>
-      <c r="Q10" s="320"/>
+      <c r="M10" s="319"/>
+      <c r="N10" s="319" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="317"/>
+      <c r="P10" s="352"/>
       <c r="R10" s="320"/>
-      <c r="S10" s="317"/>
-      <c r="T10" s="298"/>
-    </row>
-    <row r="11" spans="1:20" ht="26.25" customHeight="1">
+      <c r="S10" s="322"/>
+      <c r="T10" s="320"/>
+      <c r="U10" s="320"/>
+      <c r="V10" s="317"/>
+      <c r="W10" s="298"/>
+    </row>
+    <row r="11" spans="1:23" ht="26.25" customHeight="1">
       <c r="A11" s="317" t="s">
         <v>11</v>
       </c>
@@ -17313,19 +17395,24 @@
         <v>13</v>
       </c>
       <c r="J11" s="317"/>
-      <c r="K11" s="319" t="s">
+      <c r="K11" s="317"/>
+      <c r="L11" s="319" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="317"/>
-      <c r="M11" s="352"/>
-      <c r="O11" s="320"/>
-      <c r="P11" s="322"/>
-      <c r="Q11" s="320"/>
+      <c r="M11" s="319"/>
+      <c r="N11" s="319" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="317"/>
+      <c r="P11" s="352"/>
       <c r="R11" s="320"/>
-      <c r="S11" s="317"/>
-      <c r="T11" s="298"/>
-    </row>
-    <row r="12" spans="1:20" ht="26.25" customHeight="1">
+      <c r="S11" s="322"/>
+      <c r="T11" s="320"/>
+      <c r="U11" s="320"/>
+      <c r="V11" s="317"/>
+      <c r="W11" s="298"/>
+    </row>
+    <row r="12" spans="1:23" ht="26.25" customHeight="1">
       <c r="A12" s="317" t="s">
         <v>11</v>
       </c>
@@ -17344,19 +17431,24 @@
         <v>13</v>
       </c>
       <c r="J12" s="317"/>
-      <c r="K12" s="319" t="s">
+      <c r="K12" s="317"/>
+      <c r="L12" s="319" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="317"/>
-      <c r="M12" s="352"/>
-      <c r="O12" s="320"/>
-      <c r="P12" s="322"/>
-      <c r="Q12" s="320"/>
+      <c r="M12" s="319"/>
+      <c r="N12" s="319" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="317"/>
+      <c r="P12" s="352"/>
       <c r="R12" s="320"/>
-      <c r="S12" s="317"/>
-      <c r="T12" s="298"/>
-    </row>
-    <row r="13" spans="1:20" ht="26.25" customHeight="1">
+      <c r="S12" s="322"/>
+      <c r="T12" s="320"/>
+      <c r="U12" s="320"/>
+      <c r="V12" s="317"/>
+      <c r="W12" s="298"/>
+    </row>
+    <row r="13" spans="1:23" ht="26.25" customHeight="1">
       <c r="A13" s="317" t="s">
         <v>11</v>
       </c>
@@ -17375,16 +17467,19 @@
         <v>13</v>
       </c>
       <c r="J13" s="320"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="320"/>
+      <c r="K13" s="320"/>
+      <c r="L13" s="319"/>
+      <c r="M13" s="319"/>
+      <c r="N13" s="319"/>
       <c r="O13" s="320"/>
-      <c r="P13" s="322"/>
-      <c r="Q13" s="321"/>
       <c r="R13" s="320"/>
-      <c r="S13" s="317"/>
-      <c r="T13" s="298"/>
-    </row>
-    <row r="14" spans="1:20" ht="26.25" customHeight="1">
+      <c r="S13" s="322"/>
+      <c r="T13" s="321"/>
+      <c r="U13" s="320"/>
+      <c r="V13" s="317"/>
+      <c r="W13" s="298"/>
+    </row>
+    <row r="14" spans="1:23" ht="26.25" customHeight="1">
       <c r="A14" s="317" t="s">
         <v>11</v>
       </c>
@@ -17403,18 +17498,23 @@
         <v>13</v>
       </c>
       <c r="J14" s="320"/>
-      <c r="K14" s="319" t="s">
+      <c r="K14" s="320"/>
+      <c r="L14" s="319" t="s">
         <v>782</v>
       </c>
-      <c r="L14" s="320"/>
+      <c r="M14" s="319" t="s">
+        <v>910</v>
+      </c>
+      <c r="N14" s="319"/>
       <c r="O14" s="320"/>
-      <c r="P14" s="322"/>
-      <c r="Q14" s="321"/>
       <c r="R14" s="320"/>
-      <c r="S14" s="317"/>
-      <c r="T14" s="298"/>
-    </row>
-    <row r="15" spans="1:20" ht="26.25" customHeight="1">
+      <c r="S14" s="322"/>
+      <c r="T14" s="321"/>
+      <c r="U14" s="320"/>
+      <c r="V14" s="317"/>
+      <c r="W14" s="298"/>
+    </row>
+    <row r="15" spans="1:23" ht="26.25" customHeight="1">
       <c r="A15" s="317" t="s">
         <v>11</v>
       </c>
@@ -17430,31 +17530,36 @@
         <v>42</v>
       </c>
       <c r="I15" s="318" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J15" s="320" t="s">
         <v>790</v>
       </c>
-      <c r="K15" s="319" t="s">
+      <c r="K15" s="320"/>
+      <c r="L15" s="319" t="s">
         <v>782</v>
       </c>
-      <c r="L15" s="320">
+      <c r="M15" s="319" t="s">
+        <v>910</v>
+      </c>
+      <c r="N15" s="319"/>
+      <c r="O15" s="320">
         <v>2</v>
       </c>
-      <c r="O15" s="320"/>
-      <c r="P15" s="322" t="s">
+      <c r="R15" s="320"/>
+      <c r="S15" s="322" t="s">
         <v>43</v>
       </c>
-      <c r="Q15" s="321" t="s">
+      <c r="T15" s="321" t="s">
         <v>44</v>
       </c>
-      <c r="R15" s="320" t="s">
+      <c r="U15" s="320" t="s">
         <v>45</v>
       </c>
-      <c r="S15" s="317"/>
-      <c r="T15" s="298"/>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="V15" s="317"/>
+      <c r="W15" s="298"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="324" t="s">
         <v>46</v>
       </c>
@@ -17479,27 +17584,32 @@
         <v>820</v>
       </c>
       <c r="J16" s="325" t="s">
-        <v>852</v>
-      </c>
-      <c r="K16" s="326" t="s">
+        <v>851</v>
+      </c>
+      <c r="K16" s="325"/>
+      <c r="L16" s="326" t="s">
         <v>49</v>
       </c>
-      <c r="L16" s="325"/>
-      <c r="M16" s="353"/>
+      <c r="M16" s="319" t="s">
+        <v>910</v>
+      </c>
+      <c r="N16" s="326"/>
       <c r="O16" s="325"/>
-      <c r="P16" s="327" t="s">
+      <c r="P16" s="353"/>
+      <c r="R16" s="325"/>
+      <c r="S16" s="327" t="s">
         <v>50</v>
       </c>
-      <c r="Q16" s="320" t="s">
+      <c r="T16" s="320" t="s">
         <v>51</v>
       </c>
-      <c r="R16" s="320" t="s">
+      <c r="U16" s="320" t="s">
         <v>52</v>
       </c>
-      <c r="S16" s="317"/>
-      <c r="T16" s="298"/>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="V16" s="317"/>
+      <c r="W16" s="298"/>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="324" t="s">
         <v>46</v>
       </c>
@@ -17518,25 +17628,30 @@
         <v>828</v>
       </c>
       <c r="J17" s="325"/>
-      <c r="K17" s="326" t="s">
+      <c r="K17" s="325"/>
+      <c r="L17" s="326" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="325"/>
-      <c r="M17" s="353"/>
+      <c r="M17" s="319" t="s">
+        <v>910</v>
+      </c>
+      <c r="N17" s="326"/>
       <c r="O17" s="325"/>
-      <c r="P17" s="327" t="s">
+      <c r="P17" s="353"/>
+      <c r="R17" s="325"/>
+      <c r="S17" s="327" t="s">
         <v>50</v>
       </c>
-      <c r="Q17" s="320" t="s">
+      <c r="T17" s="320" t="s">
         <v>51</v>
       </c>
-      <c r="R17" s="320" t="s">
+      <c r="U17" s="320" t="s">
         <v>56</v>
       </c>
-      <c r="S17" s="317"/>
-      <c r="T17" s="298"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="V17" s="317"/>
+      <c r="W17" s="298"/>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="324" t="s">
         <v>46</v>
       </c>
@@ -17555,27 +17670,32 @@
         <v>820</v>
       </c>
       <c r="J18" s="325" t="s">
-        <v>853</v>
-      </c>
-      <c r="K18" s="326" t="s">
+        <v>852</v>
+      </c>
+      <c r="K18" s="325"/>
+      <c r="L18" s="326" t="s">
         <v>49</v>
       </c>
-      <c r="L18" s="325"/>
-      <c r="M18" s="353"/>
+      <c r="M18" s="319" t="s">
+        <v>910</v>
+      </c>
+      <c r="N18" s="326"/>
       <c r="O18" s="325"/>
-      <c r="P18" s="327" t="s">
+      <c r="P18" s="353"/>
+      <c r="R18" s="325"/>
+      <c r="S18" s="327" t="s">
         <v>50</v>
       </c>
-      <c r="Q18" s="320" t="s">
+      <c r="T18" s="320" t="s">
         <v>59</v>
       </c>
-      <c r="R18" s="320" t="s">
+      <c r="U18" s="320" t="s">
         <v>52</v>
       </c>
-      <c r="S18" s="317"/>
-      <c r="T18" s="298"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="V18" s="317"/>
+      <c r="W18" s="298"/>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="324" t="s">
         <v>46</v>
       </c>
@@ -17594,25 +17714,30 @@
         <v>828</v>
       </c>
       <c r="J19" s="325"/>
-      <c r="K19" s="326" t="s">
+      <c r="K19" s="325"/>
+      <c r="L19" s="326" t="s">
         <v>49</v>
       </c>
-      <c r="L19" s="325"/>
-      <c r="M19" s="353"/>
+      <c r="M19" s="319" t="s">
+        <v>910</v>
+      </c>
+      <c r="N19" s="326"/>
       <c r="O19" s="325"/>
-      <c r="P19" s="327" t="s">
+      <c r="P19" s="353"/>
+      <c r="R19" s="325"/>
+      <c r="S19" s="327" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="320" t="s">
+      <c r="T19" s="320" t="s">
         <v>59</v>
       </c>
-      <c r="R19" s="320" t="s">
+      <c r="U19" s="320" t="s">
         <v>56</v>
       </c>
-      <c r="S19" s="317"/>
-      <c r="T19" s="298"/>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="V19" s="317"/>
+      <c r="W19" s="298"/>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="324" t="s">
         <v>46</v>
       </c>
@@ -17631,19 +17756,24 @@
         <v>54</v>
       </c>
       <c r="J20" s="325"/>
-      <c r="K20" s="326" t="s">
+      <c r="K20" s="325"/>
+      <c r="L20" s="326" t="s">
         <v>49</v>
       </c>
-      <c r="L20" s="325"/>
-      <c r="M20" s="353"/>
+      <c r="M20" s="319" t="s">
+        <v>910</v>
+      </c>
+      <c r="N20" s="326"/>
       <c r="O20" s="325"/>
-      <c r="P20" s="327"/>
-      <c r="Q20" s="320"/>
-      <c r="R20" s="320"/>
-      <c r="S20" s="317"/>
-      <c r="T20" s="298"/>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="P20" s="353"/>
+      <c r="R20" s="325"/>
+      <c r="S20" s="327"/>
+      <c r="T20" s="320"/>
+      <c r="U20" s="320"/>
+      <c r="V20" s="317"/>
+      <c r="W20" s="298"/>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="324" t="s">
         <v>46</v>
       </c>
@@ -17662,27 +17792,32 @@
         <v>820</v>
       </c>
       <c r="J21" s="325" t="s">
-        <v>854</v>
-      </c>
-      <c r="K21" s="326" t="s">
+        <v>853</v>
+      </c>
+      <c r="K21" s="325"/>
+      <c r="L21" s="326" t="s">
         <v>49</v>
       </c>
-      <c r="L21" s="325"/>
-      <c r="M21" s="353"/>
+      <c r="M21" s="319" t="s">
+        <v>910</v>
+      </c>
+      <c r="N21" s="326"/>
       <c r="O21" s="325"/>
-      <c r="P21" s="327" t="s">
+      <c r="P21" s="353"/>
+      <c r="R21" s="325"/>
+      <c r="S21" s="327" t="s">
         <v>50</v>
       </c>
-      <c r="Q21" s="320" t="s">
+      <c r="T21" s="320" t="s">
         <v>66</v>
       </c>
-      <c r="R21" s="320" t="s">
+      <c r="U21" s="320" t="s">
         <v>52</v>
       </c>
-      <c r="S21" s="317"/>
-      <c r="T21" s="298"/>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="V21" s="317"/>
+      <c r="W21" s="298"/>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="324" t="s">
         <v>46</v>
       </c>
@@ -17701,25 +17836,30 @@
         <v>828</v>
       </c>
       <c r="J22" s="325"/>
-      <c r="K22" s="326" t="s">
+      <c r="K22" s="325"/>
+      <c r="L22" s="326" t="s">
         <v>49</v>
       </c>
-      <c r="L22" s="325"/>
-      <c r="M22" s="353"/>
+      <c r="M22" s="319" t="s">
+        <v>910</v>
+      </c>
+      <c r="N22" s="326"/>
       <c r="O22" s="325"/>
-      <c r="P22" s="327" t="s">
+      <c r="P22" s="353"/>
+      <c r="R22" s="325"/>
+      <c r="S22" s="327" t="s">
         <v>50</v>
       </c>
-      <c r="Q22" s="320" t="s">
+      <c r="T22" s="320" t="s">
         <v>66</v>
       </c>
-      <c r="R22" s="320" t="s">
+      <c r="U22" s="320" t="s">
         <v>56</v>
       </c>
-      <c r="S22" s="317"/>
-      <c r="T22" s="298"/>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="V22" s="317"/>
+      <c r="W22" s="298"/>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="324" t="s">
         <v>46</v>
       </c>
@@ -17738,27 +17878,32 @@
         <v>820</v>
       </c>
       <c r="J23" s="325" t="s">
-        <v>855</v>
-      </c>
-      <c r="K23" s="326" t="s">
+        <v>854</v>
+      </c>
+      <c r="K23" s="325"/>
+      <c r="L23" s="326" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="325"/>
-      <c r="M23" s="353"/>
+      <c r="M23" s="319" t="s">
+        <v>910</v>
+      </c>
+      <c r="N23" s="326"/>
       <c r="O23" s="325"/>
-      <c r="P23" s="327" t="s">
+      <c r="P23" s="353"/>
+      <c r="R23" s="325"/>
+      <c r="S23" s="327" t="s">
         <v>50</v>
       </c>
-      <c r="Q23" s="320" t="s">
+      <c r="T23" s="320" t="s">
         <v>71</v>
       </c>
-      <c r="R23" s="320" t="s">
+      <c r="U23" s="320" t="s">
         <v>52</v>
       </c>
-      <c r="S23" s="317"/>
-      <c r="T23" s="298"/>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="V23" s="317"/>
+      <c r="W23" s="298"/>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="324" t="s">
         <v>46</v>
       </c>
@@ -17777,25 +17922,30 @@
         <v>828</v>
       </c>
       <c r="J24" s="325"/>
-      <c r="K24" s="326" t="s">
+      <c r="K24" s="325"/>
+      <c r="L24" s="326" t="s">
         <v>49</v>
       </c>
-      <c r="L24" s="325"/>
-      <c r="M24" s="353"/>
+      <c r="M24" s="319" t="s">
+        <v>910</v>
+      </c>
+      <c r="N24" s="326"/>
       <c r="O24" s="325"/>
-      <c r="P24" s="327" t="s">
+      <c r="P24" s="353"/>
+      <c r="R24" s="325"/>
+      <c r="S24" s="327" t="s">
         <v>50</v>
       </c>
-      <c r="Q24" s="320" t="s">
+      <c r="T24" s="320" t="s">
         <v>71</v>
       </c>
-      <c r="R24" s="320" t="s">
+      <c r="U24" s="320" t="s">
         <v>56</v>
       </c>
-      <c r="S24" s="317"/>
-      <c r="T24" s="298"/>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="V24" s="317"/>
+      <c r="W24" s="298"/>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="317" t="s">
         <v>74</v>
       </c>
@@ -17820,16 +17970,19 @@
         <v>54</v>
       </c>
       <c r="J25" s="320"/>
-      <c r="K25" s="328"/>
-      <c r="L25" s="320"/>
+      <c r="K25" s="320"/>
+      <c r="L25" s="328"/>
+      <c r="M25" s="328"/>
+      <c r="N25" s="328"/>
       <c r="O25" s="320"/>
-      <c r="P25" s="321"/>
-      <c r="Q25" s="320"/>
       <c r="R25" s="320"/>
-      <c r="S25" s="317"/>
-      <c r="T25" s="298"/>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="S25" s="321"/>
+      <c r="T25" s="320"/>
+      <c r="U25" s="320"/>
+      <c r="V25" s="317"/>
+      <c r="W25" s="298"/>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="317" t="s">
         <v>74</v>
       </c>
@@ -17848,16 +18001,19 @@
         <v>54</v>
       </c>
       <c r="J26" s="320"/>
-      <c r="K26" s="328"/>
-      <c r="L26" s="320"/>
+      <c r="K26" s="320"/>
+      <c r="L26" s="328"/>
+      <c r="M26" s="328"/>
+      <c r="N26" s="328"/>
       <c r="O26" s="320"/>
-      <c r="P26" s="321"/>
-      <c r="Q26" s="320"/>
       <c r="R26" s="320"/>
-      <c r="S26" s="317"/>
-      <c r="T26" s="298"/>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="S26" s="321"/>
+      <c r="T26" s="320"/>
+      <c r="U26" s="320"/>
+      <c r="V26" s="317"/>
+      <c r="W26" s="298"/>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="317" t="s">
         <v>74</v>
       </c>
@@ -17876,16 +18032,19 @@
         <v>54</v>
       </c>
       <c r="J27" s="320"/>
-      <c r="K27" s="328"/>
-      <c r="L27" s="320"/>
+      <c r="K27" s="320"/>
+      <c r="L27" s="328"/>
+      <c r="M27" s="328"/>
+      <c r="N27" s="328"/>
       <c r="O27" s="320"/>
-      <c r="P27" s="321"/>
-      <c r="Q27" s="320"/>
       <c r="R27" s="320"/>
-      <c r="S27" s="317"/>
-      <c r="T27" s="298"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="S27" s="321"/>
+      <c r="T27" s="320"/>
+      <c r="U27" s="320"/>
+      <c r="V27" s="317"/>
+      <c r="W27" s="298"/>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="317" t="s">
         <v>74</v>
       </c>
@@ -17904,20 +18063,23 @@
         <v>827</v>
       </c>
       <c r="J28" s="320"/>
-      <c r="K28" s="328"/>
-      <c r="L28" s="320"/>
+      <c r="K28" s="320"/>
+      <c r="L28" s="328"/>
+      <c r="M28" s="328"/>
+      <c r="N28" s="328"/>
       <c r="O28" s="320"/>
-      <c r="P28" s="321" t="s">
+      <c r="R28" s="320"/>
+      <c r="S28" s="321" t="s">
         <v>83</v>
       </c>
-      <c r="Q28" s="320" t="s">
+      <c r="T28" s="320" t="s">
         <v>84</v>
       </c>
-      <c r="R28" s="320"/>
-      <c r="S28" s="317"/>
-      <c r="T28" s="298"/>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28" s="320"/>
+      <c r="V28" s="317"/>
+      <c r="W28" s="298"/>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="317" t="s">
         <v>74</v>
       </c>
@@ -17936,20 +18098,23 @@
         <v>828</v>
       </c>
       <c r="J29" s="320"/>
-      <c r="K29" s="328"/>
-      <c r="L29" s="320"/>
+      <c r="K29" s="320"/>
+      <c r="L29" s="328"/>
+      <c r="M29" s="328"/>
+      <c r="N29" s="328"/>
       <c r="O29" s="320"/>
-      <c r="P29" s="321" t="s">
+      <c r="R29" s="320"/>
+      <c r="S29" s="321" t="s">
         <v>83</v>
       </c>
-      <c r="Q29" s="320" t="s">
+      <c r="T29" s="320" t="s">
         <v>87</v>
       </c>
-      <c r="R29" s="320"/>
-      <c r="S29" s="317"/>
-      <c r="T29" s="298"/>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29" s="320"/>
+      <c r="V29" s="317"/>
+      <c r="W29" s="298"/>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="317" t="s">
         <v>74</v>
       </c>
@@ -17968,20 +18133,23 @@
         <v>828</v>
       </c>
       <c r="J30" s="320"/>
-      <c r="K30" s="328"/>
-      <c r="L30" s="320"/>
+      <c r="K30" s="320"/>
+      <c r="L30" s="328"/>
+      <c r="M30" s="328"/>
+      <c r="N30" s="328"/>
       <c r="O30" s="320"/>
-      <c r="P30" s="321" t="s">
+      <c r="R30" s="320"/>
+      <c r="S30" s="321" t="s">
         <v>83</v>
       </c>
-      <c r="Q30" s="320" t="s">
+      <c r="T30" s="320" t="s">
         <v>90</v>
       </c>
-      <c r="R30" s="320"/>
-      <c r="S30" s="317"/>
-      <c r="T30" s="298"/>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30" s="320"/>
+      <c r="V30" s="317"/>
+      <c r="W30" s="298"/>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="317" t="s">
         <v>74</v>
       </c>
@@ -18002,22 +18170,25 @@
       <c r="J31" s="320" t="s">
         <v>829</v>
       </c>
-      <c r="K31" s="328"/>
-      <c r="L31" s="320"/>
+      <c r="K31" s="320"/>
+      <c r="L31" s="328"/>
+      <c r="M31" s="328"/>
+      <c r="N31" s="328"/>
       <c r="O31" s="320"/>
-      <c r="P31" s="321" t="s">
+      <c r="R31" s="320"/>
+      <c r="S31" s="321" t="s">
         <v>93</v>
       </c>
-      <c r="Q31" s="320" t="s">
+      <c r="T31" s="320" t="s">
         <v>94</v>
       </c>
-      <c r="R31" s="320" t="s">
+      <c r="U31" s="320" t="s">
         <v>52</v>
       </c>
-      <c r="S31" s="317"/>
-      <c r="T31" s="298"/>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="V31" s="317"/>
+      <c r="W31" s="298"/>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="317" t="s">
         <v>74</v>
       </c>
@@ -18036,22 +18207,25 @@
         <v>828</v>
       </c>
       <c r="J32" s="320"/>
-      <c r="K32" s="328"/>
-      <c r="L32" s="320"/>
+      <c r="K32" s="320"/>
+      <c r="L32" s="328"/>
+      <c r="M32" s="328"/>
+      <c r="N32" s="328"/>
       <c r="O32" s="320"/>
-      <c r="P32" s="321" t="s">
+      <c r="R32" s="320"/>
+      <c r="S32" s="321" t="s">
         <v>93</v>
       </c>
-      <c r="Q32" s="320" t="s">
+      <c r="T32" s="320" t="s">
         <v>94</v>
       </c>
-      <c r="R32" s="320" t="s">
+      <c r="U32" s="320" t="s">
         <v>97</v>
       </c>
-      <c r="S32" s="317"/>
-      <c r="T32" s="298"/>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="V32" s="317"/>
+      <c r="W32" s="298"/>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="317" t="s">
         <v>74</v>
       </c>
@@ -18064,32 +18238,35 @@
         <v>98</v>
       </c>
       <c r="H33" s="321" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I33" s="321" t="s">
         <v>820</v>
       </c>
       <c r="J33" s="320" t="s">
-        <v>840</v>
-      </c>
-      <c r="K33" s="328"/>
-      <c r="L33" s="320"/>
+        <v>912</v>
+      </c>
+      <c r="K33" s="320"/>
+      <c r="L33" s="328"/>
+      <c r="M33" s="328"/>
+      <c r="N33" s="328"/>
       <c r="O33" s="320"/>
-      <c r="P33" s="321" t="s">
+      <c r="R33" s="320"/>
+      <c r="S33" s="321" t="s">
         <v>99</v>
       </c>
-      <c r="Q33" s="320" t="s">
+      <c r="T33" s="320" t="s">
         <v>784</v>
       </c>
-      <c r="R33" s="320" t="s">
+      <c r="U33" s="320" t="s">
         <v>52</v>
       </c>
-      <c r="S33" s="317"/>
-      <c r="T33" s="330" t="s">
+      <c r="V33" s="317"/>
+      <c r="W33" s="330" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:23">
       <c r="A34" s="317" t="s">
         <v>100</v>
       </c>
@@ -18114,18 +18291,21 @@
         <v>54</v>
       </c>
       <c r="J34" s="320"/>
-      <c r="K34" s="328"/>
-      <c r="L34" s="320"/>
+      <c r="K34" s="320"/>
+      <c r="L34" s="328"/>
+      <c r="M34" s="328"/>
+      <c r="N34" s="328"/>
       <c r="O34" s="320"/>
-      <c r="P34" s="321"/>
-      <c r="Q34" s="320"/>
       <c r="R34" s="320"/>
-      <c r="S34" s="317"/>
-      <c r="T34" s="298" t="s">
+      <c r="S34" s="321"/>
+      <c r="T34" s="320"/>
+      <c r="U34" s="320"/>
+      <c r="V34" s="317"/>
+      <c r="W34" s="298" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:23">
       <c r="A35" s="317" t="s">
         <v>100</v>
       </c>
@@ -18144,21 +18324,24 @@
         <v>103</v>
       </c>
       <c r="J35" s="320"/>
-      <c r="K35" s="328"/>
-      <c r="L35" s="320"/>
-      <c r="M35" s="320" t="s">
-        <v>891</v>
-      </c>
+      <c r="K35" s="320"/>
+      <c r="L35" s="328"/>
+      <c r="M35" s="328"/>
+      <c r="N35" s="328"/>
       <c r="O35" s="320"/>
-      <c r="P35" s="321"/>
-      <c r="Q35" s="320"/>
+      <c r="P35" s="320" t="s">
+        <v>890</v>
+      </c>
       <c r="R35" s="320"/>
-      <c r="S35" s="317"/>
-      <c r="T35" s="298" t="s">
+      <c r="S35" s="321"/>
+      <c r="T35" s="320"/>
+      <c r="U35" s="320"/>
+      <c r="V35" s="317"/>
+      <c r="W35" s="298" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:23">
       <c r="A36" s="317" t="s">
         <v>100</v>
       </c>
@@ -18177,21 +18360,24 @@
         <v>103</v>
       </c>
       <c r="J36" s="320"/>
-      <c r="K36" s="328"/>
-      <c r="L36" s="320"/>
-      <c r="M36" s="320" t="s">
-        <v>891</v>
-      </c>
+      <c r="K36" s="320"/>
+      <c r="L36" s="328"/>
+      <c r="M36" s="328"/>
+      <c r="N36" s="328"/>
       <c r="O36" s="320"/>
-      <c r="P36" s="321"/>
-      <c r="Q36" s="320"/>
+      <c r="P36" s="320" t="s">
+        <v>890</v>
+      </c>
       <c r="R36" s="320"/>
-      <c r="S36" s="317"/>
-      <c r="T36" s="298" t="s">
+      <c r="S36" s="321"/>
+      <c r="T36" s="320"/>
+      <c r="U36" s="320"/>
+      <c r="V36" s="317"/>
+      <c r="W36" s="298" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:23">
       <c r="A37" s="317" t="s">
         <v>100</v>
       </c>
@@ -18210,21 +18396,24 @@
         <v>103</v>
       </c>
       <c r="J37" s="320"/>
-      <c r="K37" s="328"/>
-      <c r="L37" s="320"/>
-      <c r="M37" s="320" t="s">
-        <v>891</v>
-      </c>
+      <c r="K37" s="320"/>
+      <c r="L37" s="328"/>
+      <c r="M37" s="328"/>
+      <c r="N37" s="328"/>
       <c r="O37" s="320"/>
-      <c r="P37" s="321"/>
-      <c r="Q37" s="320"/>
+      <c r="P37" s="320" t="s">
+        <v>890</v>
+      </c>
       <c r="R37" s="320"/>
-      <c r="S37" s="317"/>
-      <c r="T37" s="298" t="s">
+      <c r="S37" s="321"/>
+      <c r="T37" s="320"/>
+      <c r="U37" s="320"/>
+      <c r="V37" s="317"/>
+      <c r="W37" s="298" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="30">
+    <row r="38" spans="1:23" ht="30">
       <c r="A38" s="317" t="s">
         <v>100</v>
       </c>
@@ -18240,28 +18429,31 @@
         <v>824</v>
       </c>
       <c r="I38" s="318" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J38" s="300" t="s">
         <v>830</v>
       </c>
-      <c r="K38" s="328"/>
-      <c r="L38" s="320"/>
-      <c r="M38" s="320"/>
+      <c r="K38" s="430"/>
+      <c r="L38" s="328"/>
+      <c r="M38" s="328"/>
+      <c r="N38" s="328"/>
       <c r="O38" s="320"/>
-      <c r="P38" s="321" t="s">
+      <c r="P38" s="320"/>
+      <c r="R38" s="320"/>
+      <c r="S38" s="321" t="s">
         <v>43</v>
       </c>
-      <c r="Q38" s="320" t="s">
+      <c r="T38" s="320" t="s">
         <v>44</v>
       </c>
-      <c r="R38" s="320" t="s">
+      <c r="U38" s="320" t="s">
         <v>106</v>
       </c>
-      <c r="S38" s="317"/>
-      <c r="T38" s="298"/>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="V38" s="317"/>
+      <c r="W38" s="298"/>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="317" t="s">
         <v>107</v>
       </c>
@@ -18286,17 +18478,20 @@
         <v>54</v>
       </c>
       <c r="J39" s="320"/>
-      <c r="K39" s="328"/>
-      <c r="L39" s="320"/>
-      <c r="M39" s="320"/>
+      <c r="K39" s="320"/>
+      <c r="L39" s="328"/>
+      <c r="M39" s="328"/>
+      <c r="N39" s="328"/>
       <c r="O39" s="320"/>
-      <c r="P39" s="322"/>
-      <c r="Q39" s="321"/>
+      <c r="P39" s="320"/>
       <c r="R39" s="320"/>
-      <c r="S39" s="317"/>
-      <c r="T39" s="298"/>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="S39" s="322"/>
+      <c r="T39" s="321"/>
+      <c r="U39" s="320"/>
+      <c r="V39" s="317"/>
+      <c r="W39" s="298"/>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="317" t="s">
         <v>111</v>
       </c>
@@ -18321,21 +18516,24 @@
         <v>103</v>
       </c>
       <c r="J40" s="320"/>
-      <c r="K40" s="328"/>
-      <c r="L40" s="320"/>
-      <c r="M40" s="320" t="s">
-        <v>892</v>
-      </c>
+      <c r="K40" s="320"/>
+      <c r="L40" s="328"/>
+      <c r="M40" s="328"/>
+      <c r="N40" s="328"/>
       <c r="O40" s="320"/>
-      <c r="P40" s="321"/>
-      <c r="Q40" s="320"/>
+      <c r="P40" s="320" t="s">
+        <v>891</v>
+      </c>
       <c r="R40" s="320"/>
-      <c r="S40" s="317"/>
-      <c r="T40" s="298" t="s">
+      <c r="S40" s="321"/>
+      <c r="T40" s="320"/>
+      <c r="U40" s="320"/>
+      <c r="V40" s="317"/>
+      <c r="W40" s="298" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:23">
       <c r="A41" s="317" t="s">
         <v>111</v>
       </c>
@@ -18354,21 +18552,24 @@
         <v>103</v>
       </c>
       <c r="J41" s="320"/>
-      <c r="K41" s="328"/>
-      <c r="L41" s="320"/>
-      <c r="M41" s="320" t="s">
-        <v>892</v>
-      </c>
+      <c r="K41" s="320"/>
+      <c r="L41" s="328"/>
+      <c r="M41" s="328"/>
+      <c r="N41" s="328"/>
       <c r="O41" s="320"/>
-      <c r="P41" s="321"/>
-      <c r="Q41" s="320"/>
+      <c r="P41" s="320" t="s">
+        <v>891</v>
+      </c>
       <c r="R41" s="320"/>
-      <c r="S41" s="317"/>
-      <c r="T41" s="298" t="s">
+      <c r="S41" s="321"/>
+      <c r="T41" s="320"/>
+      <c r="U41" s="320"/>
+      <c r="V41" s="317"/>
+      <c r="W41" s="298" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:23">
       <c r="A42" s="317" t="s">
         <v>111</v>
       </c>
@@ -18387,21 +18588,24 @@
         <v>103</v>
       </c>
       <c r="J42" s="320"/>
-      <c r="K42" s="328"/>
-      <c r="L42" s="320"/>
-      <c r="M42" s="320" t="s">
-        <v>892</v>
-      </c>
+      <c r="K42" s="320"/>
+      <c r="L42" s="328"/>
+      <c r="M42" s="328"/>
+      <c r="N42" s="328"/>
       <c r="O42" s="320"/>
-      <c r="P42" s="321"/>
-      <c r="Q42" s="320"/>
+      <c r="P42" s="320" t="s">
+        <v>891</v>
+      </c>
       <c r="R42" s="320"/>
-      <c r="S42" s="317"/>
-      <c r="T42" s="298" t="s">
+      <c r="S42" s="321"/>
+      <c r="T42" s="320"/>
+      <c r="U42" s="320"/>
+      <c r="V42" s="317"/>
+      <c r="W42" s="298" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:23">
       <c r="A43" s="317" t="s">
         <v>115</v>
       </c>
@@ -18423,28 +18627,31 @@
         <v>117</v>
       </c>
       <c r="I43" s="318" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J43" s="320" t="s">
         <v>819</v>
       </c>
-      <c r="K43" s="328"/>
-      <c r="L43" s="320"/>
-      <c r="M43" s="320"/>
+      <c r="K43" s="320"/>
+      <c r="L43" s="328"/>
+      <c r="M43" s="328"/>
+      <c r="N43" s="328"/>
       <c r="O43" s="320"/>
-      <c r="P43" s="322" t="s">
+      <c r="P43" s="320"/>
+      <c r="R43" s="320"/>
+      <c r="S43" s="322" t="s">
         <v>43</v>
       </c>
-      <c r="Q43" s="321" t="s">
+      <c r="T43" s="321" t="s">
         <v>44</v>
       </c>
-      <c r="R43" s="320" t="s">
+      <c r="U43" s="320" t="s">
         <v>116</v>
       </c>
-      <c r="S43" s="317"/>
-      <c r="T43" s="298"/>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="V43" s="317"/>
+      <c r="W43" s="298"/>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" s="317" t="s">
         <v>115</v>
       </c>
@@ -18457,23 +18664,26 @@
         <v>118</v>
       </c>
       <c r="H44" s="321" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I44" s="320" t="s">
         <v>119</v>
       </c>
       <c r="J44" s="320"/>
-      <c r="K44" s="328"/>
-      <c r="L44" s="320"/>
-      <c r="M44" s="320"/>
+      <c r="K44" s="320"/>
+      <c r="L44" s="328"/>
+      <c r="M44" s="328"/>
+      <c r="N44" s="328"/>
       <c r="O44" s="320"/>
-      <c r="P44" s="321"/>
-      <c r="Q44" s="320"/>
+      <c r="P44" s="320"/>
       <c r="R44" s="320"/>
-      <c r="S44" s="317"/>
-      <c r="T44" s="298"/>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="S44" s="321"/>
+      <c r="T44" s="320"/>
+      <c r="U44" s="320"/>
+      <c r="V44" s="317"/>
+      <c r="W44" s="298"/>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="317" t="s">
         <v>115</v>
       </c>
@@ -18492,17 +18702,20 @@
         <v>120</v>
       </c>
       <c r="J45" s="320"/>
-      <c r="K45" s="328"/>
-      <c r="L45" s="320"/>
-      <c r="M45" s="320"/>
+      <c r="K45" s="320"/>
+      <c r="L45" s="328"/>
+      <c r="M45" s="328"/>
+      <c r="N45" s="328"/>
       <c r="O45" s="320"/>
-      <c r="P45" s="321"/>
-      <c r="Q45" s="320"/>
+      <c r="P45" s="320"/>
       <c r="R45" s="320"/>
-      <c r="S45" s="317"/>
-      <c r="T45" s="298"/>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="S45" s="321"/>
+      <c r="T45" s="320"/>
+      <c r="U45" s="320"/>
+      <c r="V45" s="317"/>
+      <c r="W45" s="298"/>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="317" t="s">
         <v>115</v>
       </c>
@@ -18521,21 +18734,24 @@
         <v>103</v>
       </c>
       <c r="J46" s="320"/>
-      <c r="K46" s="328"/>
-      <c r="L46" s="320"/>
-      <c r="M46" s="320" t="s">
-        <v>891</v>
-      </c>
+      <c r="K46" s="320"/>
+      <c r="L46" s="328"/>
+      <c r="M46" s="328"/>
+      <c r="N46" s="328"/>
       <c r="O46" s="320"/>
-      <c r="P46" s="321"/>
-      <c r="Q46" s="320"/>
+      <c r="P46" s="320" t="s">
+        <v>890</v>
+      </c>
       <c r="R46" s="320"/>
-      <c r="S46" s="317"/>
-      <c r="T46" s="298" t="s">
+      <c r="S46" s="321"/>
+      <c r="T46" s="320"/>
+      <c r="U46" s="320"/>
+      <c r="V46" s="317"/>
+      <c r="W46" s="298" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:23">
       <c r="A47" s="317" t="s">
         <v>115</v>
       </c>
@@ -18548,23 +18764,26 @@
         <v>122</v>
       </c>
       <c r="H47" s="321" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I47" s="320" t="s">
         <v>119</v>
       </c>
       <c r="J47" s="320"/>
-      <c r="K47" s="328"/>
-      <c r="L47" s="320"/>
-      <c r="M47" s="320"/>
+      <c r="K47" s="320"/>
+      <c r="L47" s="328"/>
+      <c r="M47" s="328"/>
+      <c r="N47" s="328"/>
       <c r="O47" s="320"/>
-      <c r="P47" s="321"/>
-      <c r="Q47" s="320"/>
+      <c r="P47" s="320"/>
       <c r="R47" s="320"/>
-      <c r="S47" s="317"/>
-      <c r="T47" s="298"/>
-    </row>
-    <row r="48" spans="1:20">
+      <c r="S47" s="321"/>
+      <c r="T47" s="320"/>
+      <c r="U47" s="320"/>
+      <c r="V47" s="317"/>
+      <c r="W47" s="298"/>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="317" t="s">
         <v>115</v>
       </c>
@@ -18577,27 +18796,30 @@
         <v>123</v>
       </c>
       <c r="H48" s="321" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I48" s="320" t="s">
         <v>124</v>
       </c>
       <c r="J48" s="320"/>
-      <c r="K48" s="328"/>
-      <c r="L48" s="320"/>
-      <c r="M48" s="320" t="s">
-        <v>893</v>
-      </c>
+      <c r="K48" s="320"/>
+      <c r="L48" s="328"/>
+      <c r="M48" s="328"/>
+      <c r="N48" s="328"/>
       <c r="O48" s="320"/>
-      <c r="P48" s="321"/>
-      <c r="Q48" s="320"/>
+      <c r="P48" s="320" t="s">
+        <v>892</v>
+      </c>
       <c r="R48" s="320"/>
-      <c r="S48" s="317"/>
-      <c r="T48" s="298" t="s">
+      <c r="S48" s="321"/>
+      <c r="T48" s="320"/>
+      <c r="U48" s="320"/>
+      <c r="V48" s="317"/>
+      <c r="W48" s="298" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:23">
       <c r="A49" s="317" t="s">
         <v>115</v>
       </c>
@@ -18610,23 +18832,26 @@
         <v>125</v>
       </c>
       <c r="H49" s="321" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I49" s="320" t="s">
         <v>54</v>
       </c>
       <c r="J49" s="320"/>
-      <c r="K49" s="328"/>
-      <c r="L49" s="320"/>
-      <c r="M49" s="320"/>
+      <c r="K49" s="320"/>
+      <c r="L49" s="328"/>
+      <c r="M49" s="328"/>
+      <c r="N49" s="328"/>
       <c r="O49" s="320"/>
-      <c r="P49" s="321"/>
-      <c r="Q49" s="320"/>
+      <c r="P49" s="320"/>
       <c r="R49" s="320"/>
-      <c r="S49" s="317"/>
-      <c r="T49" s="298"/>
-    </row>
-    <row r="50" spans="1:20">
+      <c r="S49" s="321"/>
+      <c r="T49" s="320"/>
+      <c r="U49" s="320"/>
+      <c r="V49" s="317"/>
+      <c r="W49" s="298"/>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" s="317" t="s">
         <v>115</v>
       </c>
@@ -18639,30 +18864,33 @@
         <v>126</v>
       </c>
       <c r="H50" s="321" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I50" s="318" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J50" s="320" t="s">
         <v>831</v>
       </c>
-      <c r="K50" s="328"/>
-      <c r="L50" s="320"/>
-      <c r="M50" s="320"/>
+      <c r="K50" s="320"/>
+      <c r="L50" s="328"/>
+      <c r="M50" s="328"/>
+      <c r="N50" s="328"/>
       <c r="O50" s="320"/>
-      <c r="P50" s="322" t="s">
+      <c r="P50" s="320"/>
+      <c r="R50" s="320"/>
+      <c r="S50" s="322" t="s">
         <v>43</v>
       </c>
-      <c r="Q50" s="321" t="s">
+      <c r="T50" s="321" t="s">
         <v>44</v>
       </c>
-      <c r="R50" s="320" t="s">
+      <c r="U50" s="320" t="s">
         <v>110</v>
       </c>
-      <c r="S50" s="317"/>
-    </row>
-    <row r="51" spans="1:20">
+      <c r="V50" s="317"/>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" s="317" t="s">
         <v>115</v>
       </c>
@@ -18675,27 +18903,30 @@
         <v>833</v>
       </c>
       <c r="H51" s="321" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I51" s="320" t="s">
         <v>832</v>
       </c>
       <c r="J51" s="320"/>
-      <c r="K51" s="328"/>
-      <c r="L51" s="320"/>
-      <c r="M51" s="320" t="s">
-        <v>891</v>
-      </c>
+      <c r="K51" s="320"/>
+      <c r="L51" s="328"/>
+      <c r="M51" s="328"/>
+      <c r="N51" s="328"/>
       <c r="O51" s="320"/>
-      <c r="P51" s="321"/>
-      <c r="Q51" s="320"/>
+      <c r="P51" s="320" t="s">
+        <v>890</v>
+      </c>
       <c r="R51" s="320"/>
-      <c r="S51" s="317"/>
-      <c r="T51" s="298" t="s">
+      <c r="S51" s="321"/>
+      <c r="T51" s="320"/>
+      <c r="U51" s="320"/>
+      <c r="V51" s="317"/>
+      <c r="W51" s="298" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:23">
       <c r="A52" s="317" t="s">
         <v>115</v>
       </c>
@@ -18708,23 +18939,26 @@
         <v>127</v>
       </c>
       <c r="H52" s="321" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="I52" s="320" t="s">
         <v>119</v>
       </c>
       <c r="J52" s="320"/>
-      <c r="K52" s="328"/>
-      <c r="L52" s="320"/>
-      <c r="M52" s="320"/>
+      <c r="K52" s="320"/>
+      <c r="L52" s="328"/>
+      <c r="M52" s="328"/>
+      <c r="N52" s="328"/>
       <c r="O52" s="320"/>
-      <c r="P52" s="321"/>
-      <c r="Q52" s="320"/>
+      <c r="P52" s="320"/>
       <c r="R52" s="320"/>
-      <c r="S52" s="317"/>
-      <c r="T52" s="298"/>
-    </row>
-    <row r="53" spans="1:20" s="336" customFormat="1">
+      <c r="S52" s="321"/>
+      <c r="T52" s="320"/>
+      <c r="U52" s="320"/>
+      <c r="V52" s="317"/>
+      <c r="W52" s="298"/>
+    </row>
+    <row r="53" spans="1:23" s="336" customFormat="1">
       <c r="A53" s="324" t="s">
         <v>115</v>
       </c>
@@ -18734,7 +18968,7 @@
       <c r="E53" s="324"/>
       <c r="F53" s="324"/>
       <c r="G53" s="327" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H53" s="327" t="s">
         <v>808</v>
@@ -18743,19 +18977,22 @@
         <v>755</v>
       </c>
       <c r="J53" s="325"/>
-      <c r="K53" s="326"/>
-      <c r="L53" s="325"/>
-      <c r="M53" s="325"/>
+      <c r="K53" s="325"/>
+      <c r="L53" s="326"/>
+      <c r="M53" s="326"/>
+      <c r="N53" s="326"/>
       <c r="O53" s="325"/>
-      <c r="P53" s="327"/>
-      <c r="Q53" s="325"/>
+      <c r="P53" s="325"/>
       <c r="R53" s="325"/>
-      <c r="S53" s="324"/>
-      <c r="T53" s="346" t="s">
+      <c r="S53" s="327"/>
+      <c r="T53" s="325"/>
+      <c r="U53" s="325"/>
+      <c r="V53" s="324"/>
+      <c r="W53" s="346" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="336" customFormat="1" ht="15">
+    <row r="54" spans="1:23" s="336" customFormat="1" ht="15">
       <c r="A54" s="324" t="s">
         <v>115</v>
       </c>
@@ -18765,30 +19002,35 @@
       <c r="E54" s="324"/>
       <c r="F54" s="324"/>
       <c r="G54" s="327" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H54" s="327" t="s">
         <v>809</v>
       </c>
       <c r="I54" s="318" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J54" s="325" t="s">
-        <v>899</v>
-      </c>
-      <c r="K54" s="326"/>
-      <c r="L54" s="325"/>
-      <c r="M54" s="325"/>
+        <v>898</v>
+      </c>
+      <c r="K54" s="325">
+        <v>200</v>
+      </c>
+      <c r="L54" s="326"/>
+      <c r="M54" s="326"/>
+      <c r="N54" s="326"/>
       <c r="O54" s="325"/>
-      <c r="P54" s="327"/>
-      <c r="Q54" s="327" t="s">
+      <c r="P54" s="325"/>
+      <c r="R54" s="325"/>
+      <c r="S54" s="327"/>
+      <c r="T54" s="327" t="s">
         <v>44</v>
       </c>
-      <c r="R54" s="325"/>
-      <c r="S54" s="324"/>
-      <c r="T54" s="335"/>
-    </row>
-    <row r="55" spans="1:20" s="336" customFormat="1" ht="15">
+      <c r="U54" s="325"/>
+      <c r="V54" s="324"/>
+      <c r="W54" s="335"/>
+    </row>
+    <row r="55" spans="1:23" s="336" customFormat="1" ht="15">
       <c r="A55" s="324" t="s">
         <v>115</v>
       </c>
@@ -18798,7 +19040,7 @@
       <c r="E55" s="324"/>
       <c r="F55" s="324"/>
       <c r="G55" s="327" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H55" s="327" t="s">
         <v>810</v>
@@ -18807,19 +19049,24 @@
         <v>54</v>
       </c>
       <c r="J55" s="325"/>
-      <c r="K55" s="326"/>
-      <c r="L55" s="325"/>
-      <c r="M55" s="325"/>
-      <c r="O55" s="325" t="s">
-        <v>904</v>
-      </c>
-      <c r="P55" s="327"/>
-      <c r="Q55" s="325"/>
-      <c r="R55" s="325"/>
-      <c r="S55" s="324"/>
-      <c r="T55" s="335"/>
-    </row>
-    <row r="56" spans="1:20" s="336" customFormat="1" ht="15">
+      <c r="K55" s="325">
+        <v>400</v>
+      </c>
+      <c r="L55" s="326"/>
+      <c r="M55" s="326"/>
+      <c r="N55" s="326"/>
+      <c r="O55" s="325"/>
+      <c r="P55" s="325"/>
+      <c r="R55" s="325" t="s">
+        <v>903</v>
+      </c>
+      <c r="S55" s="327"/>
+      <c r="T55" s="325"/>
+      <c r="U55" s="325"/>
+      <c r="V55" s="324"/>
+      <c r="W55" s="335"/>
+    </row>
+    <row r="56" spans="1:23" s="336" customFormat="1" ht="15">
       <c r="A56" s="324" t="s">
         <v>115</v>
       </c>
@@ -18829,30 +19076,35 @@
       <c r="E56" s="324"/>
       <c r="F56" s="324"/>
       <c r="G56" s="327" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H56" s="327" t="s">
         <v>810</v>
       </c>
       <c r="I56" s="325" t="s">
+        <v>902</v>
+      </c>
+      <c r="J56" s="325" t="s">
+        <v>904</v>
+      </c>
+      <c r="K56" s="325">
+        <v>400</v>
+      </c>
+      <c r="L56" s="326"/>
+      <c r="M56" s="326"/>
+      <c r="N56" s="326"/>
+      <c r="O56" s="325"/>
+      <c r="P56" s="325"/>
+      <c r="R56" s="325" t="s">
         <v>903</v>
       </c>
-      <c r="J56" s="325" t="s">
-        <v>905</v>
-      </c>
-      <c r="K56" s="326"/>
-      <c r="L56" s="325"/>
-      <c r="M56" s="325"/>
-      <c r="O56" s="325" t="s">
-        <v>904</v>
-      </c>
-      <c r="P56" s="327"/>
-      <c r="Q56" s="325"/>
-      <c r="R56" s="325"/>
-      <c r="S56" s="324"/>
-      <c r="T56" s="335"/>
-    </row>
-    <row r="57" spans="1:20" s="342" customFormat="1">
+      <c r="S56" s="327"/>
+      <c r="T56" s="325"/>
+      <c r="U56" s="325"/>
+      <c r="V56" s="324"/>
+      <c r="W56" s="335"/>
+    </row>
+    <row r="57" spans="1:23" s="342" customFormat="1">
       <c r="A57" s="337" t="s">
         <v>756</v>
       </c>
@@ -18863,33 +19115,36 @@
         <v>8</v>
       </c>
       <c r="D57" s="337" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E57" s="337"/>
       <c r="F57" s="337"/>
       <c r="G57" s="347" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H57" s="340" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I57" s="338" t="s">
         <v>757</v>
       </c>
       <c r="J57" s="338"/>
-      <c r="K57" s="339"/>
-      <c r="L57" s="338"/>
-      <c r="M57" s="338"/>
+      <c r="K57" s="338"/>
+      <c r="L57" s="339"/>
+      <c r="M57" s="339"/>
+      <c r="N57" s="339"/>
       <c r="O57" s="338"/>
-      <c r="P57" s="340"/>
-      <c r="Q57" s="338"/>
+      <c r="P57" s="338"/>
       <c r="R57" s="338"/>
-      <c r="S57" s="337"/>
-      <c r="T57" s="346" t="s">
+      <c r="S57" s="340"/>
+      <c r="T57" s="338"/>
+      <c r="U57" s="338"/>
+      <c r="V57" s="337"/>
+      <c r="W57" s="346" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="342" customFormat="1" ht="15">
+    <row r="58" spans="1:23" s="342" customFormat="1" ht="15">
       <c r="A58" s="337" t="s">
         <v>128</v>
       </c>
@@ -18899,30 +19154,35 @@
       <c r="E58" s="337"/>
       <c r="F58" s="337"/>
       <c r="G58" s="347" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H58" s="340" t="s">
         <v>809</v>
       </c>
       <c r="I58" s="338" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J58" s="338" t="s">
-        <v>900</v>
-      </c>
-      <c r="K58" s="339"/>
-      <c r="L58" s="338"/>
-      <c r="M58" s="338"/>
+        <v>899</v>
+      </c>
+      <c r="K58" s="338">
+        <v>200</v>
+      </c>
+      <c r="L58" s="339"/>
+      <c r="M58" s="339"/>
+      <c r="N58" s="339"/>
       <c r="O58" s="338"/>
-      <c r="P58" s="340"/>
-      <c r="Q58" s="340" t="s">
+      <c r="P58" s="338"/>
+      <c r="R58" s="338"/>
+      <c r="S58" s="340"/>
+      <c r="T58" s="340" t="s">
         <v>44</v>
       </c>
-      <c r="R58" s="338"/>
-      <c r="S58" s="337"/>
-      <c r="T58" s="341"/>
-    </row>
-    <row r="59" spans="1:20" s="342" customFormat="1" ht="15">
+      <c r="U58" s="338"/>
+      <c r="V58" s="337"/>
+      <c r="W58" s="341"/>
+    </row>
+    <row r="59" spans="1:23" s="342" customFormat="1" ht="15">
       <c r="A59" s="337" t="s">
         <v>128</v>
       </c>
@@ -18932,7 +19192,7 @@
       <c r="E59" s="337"/>
       <c r="F59" s="337"/>
       <c r="G59" s="347" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H59" s="340" t="s">
         <v>810</v>
@@ -18941,21 +19201,26 @@
         <v>54</v>
       </c>
       <c r="J59" s="338"/>
-      <c r="K59" s="339"/>
-      <c r="L59" s="338"/>
-      <c r="M59" s="338"/>
-      <c r="O59" s="338" t="s">
+      <c r="K59" s="338">
+        <v>400</v>
+      </c>
+      <c r="L59" s="339"/>
+      <c r="M59" s="339"/>
+      <c r="N59" s="339"/>
+      <c r="O59" s="338"/>
+      <c r="P59" s="338"/>
+      <c r="R59" s="338" t="s">
         <v>759</v>
       </c>
-      <c r="P59" s="340"/>
-      <c r="Q59" s="340" t="s">
+      <c r="S59" s="340"/>
+      <c r="T59" s="340" t="s">
         <v>44</v>
       </c>
-      <c r="R59" s="338"/>
-      <c r="S59" s="337"/>
-      <c r="T59" s="341"/>
-    </row>
-    <row r="60" spans="1:20" s="342" customFormat="1" ht="15">
+      <c r="U59" s="338"/>
+      <c r="V59" s="337"/>
+      <c r="W59" s="341"/>
+    </row>
+    <row r="60" spans="1:23" s="342" customFormat="1" ht="15">
       <c r="A60" s="337" t="s">
         <v>128</v>
       </c>
@@ -18965,32 +19230,37 @@
       <c r="E60" s="337"/>
       <c r="F60" s="337"/>
       <c r="G60" s="347" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H60" s="340" t="s">
         <v>810</v>
       </c>
       <c r="I60" s="338" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J60" s="342" t="s">
-        <v>905</v>
-      </c>
-      <c r="K60" s="339"/>
-      <c r="L60" s="338"/>
-      <c r="M60" s="338"/>
-      <c r="O60" s="338" t="s">
+        <v>904</v>
+      </c>
+      <c r="K60" s="426">
+        <v>400</v>
+      </c>
+      <c r="L60" s="339"/>
+      <c r="M60" s="339"/>
+      <c r="N60" s="339"/>
+      <c r="O60" s="338"/>
+      <c r="P60" s="338"/>
+      <c r="R60" s="338" t="s">
         <v>759</v>
       </c>
-      <c r="P60" s="340"/>
-      <c r="Q60" s="340" t="s">
+      <c r="S60" s="340"/>
+      <c r="T60" s="340" t="s">
         <v>44</v>
       </c>
-      <c r="R60" s="338"/>
-      <c r="S60" s="337"/>
-      <c r="T60" s="341"/>
-    </row>
-    <row r="61" spans="1:20" s="342" customFormat="1" ht="15">
+      <c r="U60" s="338"/>
+      <c r="V60" s="337"/>
+      <c r="W60" s="341"/>
+    </row>
+    <row r="61" spans="1:23" s="342" customFormat="1" ht="15">
       <c r="A61" s="337" t="s">
         <v>128</v>
       </c>
@@ -19000,32 +19270,37 @@
       <c r="E61" s="337"/>
       <c r="F61" s="337"/>
       <c r="G61" s="347" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H61" s="340" t="s">
         <v>810</v>
       </c>
       <c r="I61" s="338" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J61" s="342" t="s">
-        <v>909</v>
-      </c>
-      <c r="K61" s="339"/>
-      <c r="L61" s="338"/>
-      <c r="M61" s="338"/>
-      <c r="O61" s="338" t="s">
+        <v>908</v>
+      </c>
+      <c r="K61" s="426">
+        <v>400</v>
+      </c>
+      <c r="L61" s="339"/>
+      <c r="M61" s="339"/>
+      <c r="N61" s="339"/>
+      <c r="O61" s="338"/>
+      <c r="P61" s="338"/>
+      <c r="R61" s="338" t="s">
         <v>759</v>
       </c>
-      <c r="P61" s="340"/>
-      <c r="Q61" s="340" t="s">
+      <c r="S61" s="340"/>
+      <c r="T61" s="340" t="s">
         <v>44</v>
       </c>
-      <c r="R61" s="338"/>
-      <c r="S61" s="337"/>
-      <c r="T61" s="341"/>
-    </row>
-    <row r="62" spans="1:20">
+      <c r="U61" s="338"/>
+      <c r="V61" s="337"/>
+      <c r="W61" s="341"/>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" s="317" t="s">
         <v>140</v>
       </c>
@@ -19049,18 +19324,21 @@
       <c r="I62" s="320" t="s">
         <v>119</v>
       </c>
-      <c r="J62" s="426"/>
-      <c r="K62" s="328"/>
-      <c r="L62" s="320"/>
-      <c r="M62" s="320"/>
+      <c r="J62" s="427"/>
+      <c r="K62" s="427"/>
+      <c r="L62" s="328"/>
+      <c r="M62" s="328"/>
+      <c r="N62" s="328"/>
       <c r="O62" s="320"/>
-      <c r="P62" s="321"/>
-      <c r="Q62" s="320"/>
+      <c r="P62" s="320"/>
       <c r="R62" s="320"/>
-      <c r="S62" s="317"/>
-      <c r="T62" s="298"/>
-    </row>
-    <row r="63" spans="1:20">
+      <c r="S62" s="321"/>
+      <c r="T62" s="320"/>
+      <c r="U62" s="320"/>
+      <c r="V62" s="317"/>
+      <c r="W62" s="298"/>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" s="317" t="s">
         <v>140</v>
       </c>
@@ -19073,27 +19351,30 @@
         <v>143</v>
       </c>
       <c r="H63" s="321" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I63" s="320" t="s">
         <v>103</v>
       </c>
       <c r="J63" s="320"/>
-      <c r="K63" s="328"/>
-      <c r="L63" s="320"/>
-      <c r="M63" s="320" t="s">
-        <v>892</v>
-      </c>
+      <c r="K63" s="320"/>
+      <c r="L63" s="328"/>
+      <c r="M63" s="328"/>
+      <c r="N63" s="328"/>
       <c r="O63" s="320"/>
-      <c r="P63" s="321"/>
-      <c r="Q63" s="320"/>
+      <c r="P63" s="320" t="s">
+        <v>891</v>
+      </c>
       <c r="R63" s="320"/>
-      <c r="S63" s="317"/>
-      <c r="T63" s="298" t="s">
+      <c r="S63" s="321"/>
+      <c r="T63" s="320"/>
+      <c r="U63" s="320"/>
+      <c r="V63" s="317"/>
+      <c r="W63" s="298" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:23">
       <c r="A64" s="317" t="s">
         <v>140</v>
       </c>
@@ -19106,27 +19387,30 @@
         <v>144</v>
       </c>
       <c r="H64" s="321" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="I64" s="320" t="s">
         <v>103</v>
       </c>
       <c r="J64" s="320"/>
-      <c r="K64" s="328"/>
-      <c r="L64" s="320"/>
-      <c r="M64" s="320" t="s">
-        <v>893</v>
-      </c>
+      <c r="K64" s="320"/>
+      <c r="L64" s="328"/>
+      <c r="M64" s="328"/>
+      <c r="N64" s="328"/>
       <c r="O64" s="320"/>
-      <c r="P64" s="321"/>
-      <c r="Q64" s="320"/>
+      <c r="P64" s="320" t="s">
+        <v>892</v>
+      </c>
       <c r="R64" s="320"/>
-      <c r="S64" s="317"/>
-      <c r="T64" s="298" t="s">
+      <c r="S64" s="321"/>
+      <c r="T64" s="320"/>
+      <c r="U64" s="320"/>
+      <c r="V64" s="317"/>
+      <c r="W64" s="298" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:23">
       <c r="A65" s="317" t="s">
         <v>140</v>
       </c>
@@ -19145,17 +19429,20 @@
         <v>119</v>
       </c>
       <c r="J65" s="320"/>
-      <c r="K65" s="328"/>
-      <c r="L65" s="320"/>
-      <c r="M65" s="320"/>
+      <c r="K65" s="320"/>
+      <c r="L65" s="328"/>
+      <c r="M65" s="328"/>
+      <c r="N65" s="328"/>
       <c r="O65" s="320"/>
-      <c r="P65" s="321"/>
-      <c r="Q65" s="320"/>
+      <c r="P65" s="320"/>
       <c r="R65" s="320"/>
-      <c r="S65" s="317"/>
-      <c r="T65" s="298"/>
-    </row>
-    <row r="66" spans="1:20">
+      <c r="S65" s="321"/>
+      <c r="T65" s="320"/>
+      <c r="U65" s="320"/>
+      <c r="V65" s="317"/>
+      <c r="W65" s="298"/>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66" s="317" t="s">
         <v>140</v>
       </c>
@@ -19168,23 +19455,26 @@
         <v>147</v>
       </c>
       <c r="H66" s="321" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I66" s="320" t="s">
         <v>119</v>
       </c>
       <c r="J66" s="320"/>
-      <c r="K66" s="328"/>
-      <c r="L66" s="320"/>
-      <c r="M66" s="320"/>
+      <c r="K66" s="320"/>
+      <c r="L66" s="328"/>
+      <c r="M66" s="328"/>
+      <c r="N66" s="328"/>
       <c r="O66" s="320"/>
-      <c r="P66" s="321"/>
-      <c r="Q66" s="320"/>
+      <c r="P66" s="320"/>
       <c r="R66" s="320"/>
-      <c r="S66" s="317"/>
-      <c r="T66" s="298"/>
-    </row>
-    <row r="67" spans="1:20">
+      <c r="S66" s="321"/>
+      <c r="T66" s="320"/>
+      <c r="U66" s="320"/>
+      <c r="V66" s="317"/>
+      <c r="W66" s="298"/>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67" s="317" t="s">
         <v>140</v>
       </c>
@@ -19197,23 +19487,26 @@
         <v>148</v>
       </c>
       <c r="H67" s="321" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I67" s="320" t="s">
         <v>54</v>
       </c>
       <c r="J67" s="320"/>
-      <c r="K67" s="328"/>
-      <c r="L67" s="320"/>
-      <c r="M67" s="320"/>
+      <c r="K67" s="320"/>
+      <c r="L67" s="328"/>
+      <c r="M67" s="328"/>
+      <c r="N67" s="328"/>
       <c r="O67" s="320"/>
-      <c r="P67" s="321"/>
-      <c r="Q67" s="320"/>
+      <c r="P67" s="320"/>
       <c r="R67" s="320"/>
-      <c r="S67" s="317"/>
-      <c r="T67" s="298"/>
-    </row>
-    <row r="68" spans="1:20">
+      <c r="S67" s="321"/>
+      <c r="T67" s="320"/>
+      <c r="U67" s="320"/>
+      <c r="V67" s="317"/>
+      <c r="W67" s="298"/>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" s="317" t="s">
         <v>140</v>
       </c>
@@ -19226,23 +19519,26 @@
         <v>149</v>
       </c>
       <c r="H68" s="321" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I68" s="320" t="s">
         <v>119</v>
       </c>
       <c r="J68" s="320"/>
-      <c r="K68" s="328"/>
-      <c r="L68" s="320"/>
-      <c r="M68" s="320"/>
+      <c r="K68" s="320"/>
+      <c r="L68" s="328"/>
+      <c r="M68" s="328"/>
+      <c r="N68" s="328"/>
       <c r="O68" s="320"/>
-      <c r="P68" s="321"/>
-      <c r="Q68" s="320"/>
+      <c r="P68" s="320"/>
       <c r="R68" s="320"/>
-      <c r="S68" s="317"/>
-      <c r="T68" s="298"/>
-    </row>
-    <row r="69" spans="1:20">
+      <c r="S68" s="321"/>
+      <c r="T68" s="320"/>
+      <c r="U68" s="320"/>
+      <c r="V68" s="317"/>
+      <c r="W68" s="298"/>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" s="317" t="s">
         <v>140</v>
       </c>
@@ -19255,23 +19551,26 @@
         <v>150</v>
       </c>
       <c r="H69" s="299" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I69" s="320" t="s">
         <v>119</v>
       </c>
       <c r="J69" s="320"/>
-      <c r="K69" s="328"/>
-      <c r="L69" s="320"/>
-      <c r="M69" s="320"/>
+      <c r="K69" s="320"/>
+      <c r="L69" s="328"/>
+      <c r="M69" s="328"/>
+      <c r="N69" s="328"/>
       <c r="O69" s="320"/>
-      <c r="P69" s="321"/>
-      <c r="Q69" s="320"/>
+      <c r="P69" s="320"/>
       <c r="R69" s="320"/>
-      <c r="S69" s="317"/>
-      <c r="T69" s="298"/>
-    </row>
-    <row r="70" spans="1:20">
+      <c r="S69" s="321"/>
+      <c r="T69" s="320"/>
+      <c r="U69" s="320"/>
+      <c r="V69" s="317"/>
+      <c r="W69" s="298"/>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" s="317" t="s">
         <v>140</v>
       </c>
@@ -19284,23 +19583,26 @@
         <v>151</v>
       </c>
       <c r="H70" s="321" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I70" s="320" t="s">
         <v>119</v>
       </c>
       <c r="J70" s="320"/>
-      <c r="K70" s="328"/>
-      <c r="L70" s="320"/>
-      <c r="M70" s="320"/>
+      <c r="K70" s="320"/>
+      <c r="L70" s="328"/>
+      <c r="M70" s="328"/>
+      <c r="N70" s="328"/>
       <c r="O70" s="320"/>
-      <c r="P70" s="321"/>
-      <c r="Q70" s="320"/>
+      <c r="P70" s="320"/>
       <c r="R70" s="320"/>
-      <c r="S70" s="317"/>
-      <c r="T70" s="298"/>
-    </row>
-    <row r="71" spans="1:20">
+      <c r="S70" s="321"/>
+      <c r="T70" s="320"/>
+      <c r="U70" s="320"/>
+      <c r="V70" s="317"/>
+      <c r="W70" s="298"/>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" s="317" t="s">
         <v>140</v>
       </c>
@@ -19313,23 +19615,26 @@
         <v>152</v>
       </c>
       <c r="H71" s="321" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I71" s="320" t="s">
         <v>119</v>
       </c>
       <c r="J71" s="320"/>
-      <c r="K71" s="328"/>
-      <c r="L71" s="320"/>
-      <c r="M71" s="320"/>
+      <c r="K71" s="320"/>
+      <c r="L71" s="328"/>
+      <c r="M71" s="328"/>
+      <c r="N71" s="328"/>
       <c r="O71" s="320"/>
-      <c r="P71" s="321"/>
-      <c r="Q71" s="320"/>
+      <c r="P71" s="320"/>
       <c r="R71" s="320"/>
-      <c r="S71" s="317"/>
-      <c r="T71" s="298"/>
-    </row>
-    <row r="72" spans="1:20">
+      <c r="S71" s="321"/>
+      <c r="T71" s="320"/>
+      <c r="U71" s="320"/>
+      <c r="V71" s="317"/>
+      <c r="W71" s="298"/>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" s="317" t="s">
         <v>140</v>
       </c>
@@ -19342,23 +19647,26 @@
         <v>153</v>
       </c>
       <c r="H72" s="321" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I72" s="320" t="s">
         <v>119</v>
       </c>
       <c r="J72" s="320"/>
-      <c r="K72" s="328"/>
-      <c r="L72" s="320"/>
-      <c r="M72" s="320"/>
+      <c r="K72" s="320"/>
+      <c r="L72" s="328"/>
+      <c r="M72" s="328"/>
+      <c r="N72" s="328"/>
       <c r="O72" s="320"/>
-      <c r="P72" s="321"/>
-      <c r="Q72" s="320"/>
+      <c r="P72" s="320"/>
       <c r="R72" s="320"/>
-      <c r="S72" s="317"/>
-      <c r="T72" s="298"/>
-    </row>
-    <row r="73" spans="1:20">
+      <c r="S72" s="321"/>
+      <c r="T72" s="320"/>
+      <c r="U72" s="320"/>
+      <c r="V72" s="317"/>
+      <c r="W72" s="298"/>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" s="317" t="s">
         <v>140</v>
       </c>
@@ -19371,23 +19679,26 @@
         <v>154</v>
       </c>
       <c r="H73" s="321" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I73" s="320" t="s">
         <v>120</v>
       </c>
       <c r="J73" s="320"/>
-      <c r="K73" s="328"/>
-      <c r="L73" s="320"/>
-      <c r="M73" s="320"/>
+      <c r="K73" s="320"/>
+      <c r="L73" s="328"/>
+      <c r="M73" s="328"/>
+      <c r="N73" s="328"/>
       <c r="O73" s="320"/>
-      <c r="P73" s="321"/>
-      <c r="Q73" s="320"/>
+      <c r="P73" s="320"/>
       <c r="R73" s="320"/>
-      <c r="S73" s="317"/>
-      <c r="T73" s="298"/>
-    </row>
-    <row r="74" spans="1:20">
+      <c r="S73" s="321"/>
+      <c r="T73" s="320"/>
+      <c r="U73" s="320"/>
+      <c r="V73" s="317"/>
+      <c r="W73" s="298"/>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" s="317" t="s">
         <v>140</v>
       </c>
@@ -19400,23 +19711,26 @@
         <v>155</v>
       </c>
       <c r="H74" s="321" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I74" s="320" t="s">
         <v>120</v>
       </c>
       <c r="J74" s="320"/>
-      <c r="K74" s="328"/>
-      <c r="L74" s="320"/>
-      <c r="M74" s="320"/>
+      <c r="K74" s="320"/>
+      <c r="L74" s="328"/>
+      <c r="M74" s="328"/>
+      <c r="N74" s="328"/>
       <c r="O74" s="320"/>
-      <c r="P74" s="321"/>
-      <c r="Q74" s="320"/>
+      <c r="P74" s="320"/>
       <c r="R74" s="320"/>
-      <c r="S74" s="317"/>
-      <c r="T74" s="298"/>
-    </row>
-    <row r="75" spans="1:20">
+      <c r="S74" s="321"/>
+      <c r="T74" s="320"/>
+      <c r="U74" s="320"/>
+      <c r="V74" s="317"/>
+      <c r="W74" s="298"/>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75" s="317" t="s">
         <v>140</v>
       </c>
@@ -19435,17 +19749,20 @@
         <v>157</v>
       </c>
       <c r="J75" s="320"/>
-      <c r="K75" s="328"/>
-      <c r="L75" s="320"/>
-      <c r="M75" s="320"/>
+      <c r="K75" s="320"/>
+      <c r="L75" s="328"/>
+      <c r="M75" s="328"/>
+      <c r="N75" s="328"/>
       <c r="O75" s="320"/>
-      <c r="P75" s="321"/>
-      <c r="Q75" s="320"/>
+      <c r="P75" s="320"/>
       <c r="R75" s="320"/>
-      <c r="S75" s="317"/>
-      <c r="T75" s="298"/>
-    </row>
-    <row r="76" spans="1:20">
+      <c r="S75" s="321"/>
+      <c r="T75" s="320"/>
+      <c r="U75" s="320"/>
+      <c r="V75" s="317"/>
+      <c r="W75" s="298"/>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" s="317" t="s">
         <v>140</v>
       </c>
@@ -19464,17 +19781,20 @@
         <v>157</v>
       </c>
       <c r="J76" s="320"/>
-      <c r="K76" s="328"/>
-      <c r="L76" s="320"/>
-      <c r="M76" s="320"/>
+      <c r="K76" s="320"/>
+      <c r="L76" s="328"/>
+      <c r="M76" s="328"/>
+      <c r="N76" s="328"/>
       <c r="O76" s="320"/>
-      <c r="P76" s="321"/>
-      <c r="Q76" s="320"/>
+      <c r="P76" s="320"/>
       <c r="R76" s="320"/>
-      <c r="S76" s="317"/>
-      <c r="T76" s="298"/>
-    </row>
-    <row r="77" spans="1:20">
+      <c r="S76" s="321"/>
+      <c r="T76" s="320"/>
+      <c r="U76" s="320"/>
+      <c r="V76" s="317"/>
+      <c r="W76" s="298"/>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" s="317" t="s">
         <v>140</v>
       </c>
@@ -19487,23 +19807,26 @@
         <v>161</v>
       </c>
       <c r="H77" s="331" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I77" s="320" t="s">
         <v>157</v>
       </c>
       <c r="J77" s="320"/>
-      <c r="K77" s="328"/>
-      <c r="L77" s="320"/>
-      <c r="M77" s="320"/>
+      <c r="K77" s="320"/>
+      <c r="L77" s="328"/>
+      <c r="M77" s="328"/>
+      <c r="N77" s="328"/>
       <c r="O77" s="320"/>
-      <c r="P77" s="321"/>
-      <c r="Q77" s="320"/>
+      <c r="P77" s="320"/>
       <c r="R77" s="320"/>
-      <c r="S77" s="317"/>
-      <c r="T77" s="298"/>
-    </row>
-    <row r="78" spans="1:20">
+      <c r="S77" s="321"/>
+      <c r="T77" s="320"/>
+      <c r="U77" s="320"/>
+      <c r="V77" s="317"/>
+      <c r="W77" s="298"/>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" s="317" t="s">
         <v>140</v>
       </c>
@@ -19516,27 +19839,30 @@
         <v>162</v>
       </c>
       <c r="H78" s="321" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I78" s="320" t="s">
         <v>103</v>
       </c>
       <c r="J78" s="320"/>
-      <c r="K78" s="328"/>
-      <c r="L78" s="320"/>
-      <c r="M78" s="320" t="s">
-        <v>891</v>
-      </c>
+      <c r="K78" s="320"/>
+      <c r="L78" s="328"/>
+      <c r="M78" s="328"/>
+      <c r="N78" s="328"/>
       <c r="O78" s="320"/>
-      <c r="P78" s="321"/>
-      <c r="Q78" s="320"/>
+      <c r="P78" s="320" t="s">
+        <v>890</v>
+      </c>
       <c r="R78" s="320"/>
-      <c r="S78" s="317"/>
-      <c r="T78" s="298" t="s">
+      <c r="S78" s="321"/>
+      <c r="T78" s="320"/>
+      <c r="U78" s="320"/>
+      <c r="V78" s="317"/>
+      <c r="W78" s="298" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:23">
       <c r="A79" s="317" t="s">
         <v>140</v>
       </c>
@@ -19549,27 +19875,30 @@
         <v>163</v>
       </c>
       <c r="H79" s="321" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I79" s="320" t="s">
         <v>103</v>
       </c>
       <c r="J79" s="320"/>
-      <c r="K79" s="328"/>
-      <c r="L79" s="320"/>
-      <c r="M79" s="320" t="s">
-        <v>891</v>
-      </c>
+      <c r="K79" s="320"/>
+      <c r="L79" s="328"/>
+      <c r="M79" s="328"/>
+      <c r="N79" s="328"/>
       <c r="O79" s="320"/>
-      <c r="P79" s="321"/>
-      <c r="Q79" s="320"/>
+      <c r="P79" s="320" t="s">
+        <v>890</v>
+      </c>
       <c r="R79" s="320"/>
-      <c r="S79" s="317"/>
-      <c r="T79" s="298" t="s">
+      <c r="S79" s="321"/>
+      <c r="T79" s="320"/>
+      <c r="U79" s="320"/>
+      <c r="V79" s="317"/>
+      <c r="W79" s="298" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:23">
       <c r="A80" s="317" t="s">
         <v>140</v>
       </c>
@@ -19588,21 +19917,24 @@
         <v>103</v>
       </c>
       <c r="J80" s="320"/>
-      <c r="K80" s="328"/>
-      <c r="L80" s="320"/>
-      <c r="M80" s="320" t="s">
-        <v>891</v>
-      </c>
+      <c r="K80" s="320"/>
+      <c r="L80" s="328"/>
+      <c r="M80" s="328"/>
+      <c r="N80" s="328"/>
       <c r="O80" s="320"/>
-      <c r="P80" s="321"/>
-      <c r="Q80" s="320"/>
+      <c r="P80" s="320" t="s">
+        <v>890</v>
+      </c>
       <c r="R80" s="320"/>
-      <c r="S80" s="317"/>
-      <c r="T80" s="298" t="s">
+      <c r="S80" s="321"/>
+      <c r="T80" s="320"/>
+      <c r="U80" s="320"/>
+      <c r="V80" s="317"/>
+      <c r="W80" s="298" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:23">
       <c r="A81" s="317" t="s">
         <v>140</v>
       </c>
@@ -19621,21 +19953,24 @@
         <v>103</v>
       </c>
       <c r="J81" s="320"/>
-      <c r="K81" s="328"/>
-      <c r="L81" s="320"/>
-      <c r="M81" s="320" t="s">
-        <v>891</v>
-      </c>
+      <c r="K81" s="320"/>
+      <c r="L81" s="328"/>
+      <c r="M81" s="328"/>
+      <c r="N81" s="328"/>
       <c r="O81" s="320"/>
-      <c r="P81" s="321"/>
-      <c r="Q81" s="320"/>
+      <c r="P81" s="320" t="s">
+        <v>890</v>
+      </c>
       <c r="R81" s="320"/>
-      <c r="S81" s="317"/>
-      <c r="T81" s="298" t="s">
+      <c r="S81" s="321"/>
+      <c r="T81" s="320"/>
+      <c r="U81" s="320"/>
+      <c r="V81" s="317"/>
+      <c r="W81" s="298" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:23">
       <c r="A82" s="317" t="s">
         <v>140</v>
       </c>
@@ -19654,21 +19989,24 @@
         <v>103</v>
       </c>
       <c r="J82" s="320"/>
-      <c r="K82" s="328"/>
-      <c r="L82" s="320"/>
-      <c r="M82" s="320" t="s">
-        <v>891</v>
-      </c>
+      <c r="K82" s="320"/>
+      <c r="L82" s="328"/>
+      <c r="M82" s="328"/>
+      <c r="N82" s="328"/>
       <c r="O82" s="320"/>
-      <c r="P82" s="321"/>
-      <c r="Q82" s="320"/>
+      <c r="P82" s="320" t="s">
+        <v>890</v>
+      </c>
       <c r="R82" s="320"/>
-      <c r="S82" s="317"/>
-      <c r="T82" s="298" t="s">
+      <c r="S82" s="321"/>
+      <c r="T82" s="320"/>
+      <c r="U82" s="320"/>
+      <c r="V82" s="317"/>
+      <c r="W82" s="298" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:23">
       <c r="A83" s="317" t="s">
         <v>140</v>
       </c>
@@ -19687,21 +20025,24 @@
         <v>103</v>
       </c>
       <c r="J83" s="320"/>
-      <c r="K83" s="328"/>
-      <c r="L83" s="320"/>
-      <c r="M83" s="320" t="s">
-        <v>891</v>
-      </c>
+      <c r="K83" s="320"/>
+      <c r="L83" s="328"/>
+      <c r="M83" s="328"/>
+      <c r="N83" s="328"/>
       <c r="O83" s="320"/>
-      <c r="P83" s="321"/>
-      <c r="Q83" s="320"/>
+      <c r="P83" s="320" t="s">
+        <v>890</v>
+      </c>
       <c r="R83" s="320"/>
-      <c r="S83" s="317"/>
-      <c r="T83" s="298" t="s">
+      <c r="S83" s="321"/>
+      <c r="T83" s="320"/>
+      <c r="U83" s="320"/>
+      <c r="V83" s="317"/>
+      <c r="W83" s="298" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:23">
       <c r="A84" s="317" t="s">
         <v>140</v>
       </c>
@@ -19720,21 +20061,24 @@
         <v>103</v>
       </c>
       <c r="J84" s="320"/>
-      <c r="K84" s="328"/>
-      <c r="L84" s="320"/>
-      <c r="M84" s="320" t="s">
-        <v>891</v>
-      </c>
+      <c r="K84" s="320"/>
+      <c r="L84" s="328"/>
+      <c r="M84" s="328"/>
+      <c r="N84" s="328"/>
       <c r="O84" s="320"/>
-      <c r="P84" s="321"/>
-      <c r="Q84" s="320"/>
+      <c r="P84" s="320" t="s">
+        <v>890</v>
+      </c>
       <c r="R84" s="320"/>
-      <c r="S84" s="317"/>
-      <c r="T84" s="298" t="s">
+      <c r="S84" s="321"/>
+      <c r="T84" s="320"/>
+      <c r="U84" s="320"/>
+      <c r="V84" s="317"/>
+      <c r="W84" s="298" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:23">
       <c r="A85" s="317" t="s">
         <v>140</v>
       </c>
@@ -19753,21 +20097,24 @@
         <v>103</v>
       </c>
       <c r="J85" s="320"/>
-      <c r="K85" s="328"/>
-      <c r="L85" s="320"/>
-      <c r="M85" s="320" t="s">
-        <v>891</v>
-      </c>
+      <c r="K85" s="320"/>
+      <c r="L85" s="328"/>
+      <c r="M85" s="328"/>
+      <c r="N85" s="328"/>
       <c r="O85" s="320"/>
-      <c r="P85" s="321"/>
-      <c r="Q85" s="320"/>
+      <c r="P85" s="320" t="s">
+        <v>890</v>
+      </c>
       <c r="R85" s="320"/>
-      <c r="S85" s="317"/>
-      <c r="T85" s="298" t="s">
+      <c r="S85" s="321"/>
+      <c r="T85" s="320"/>
+      <c r="U85" s="320"/>
+      <c r="V85" s="317"/>
+      <c r="W85" s="298" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:23">
       <c r="A86" s="317" t="s">
         <v>140</v>
       </c>
@@ -19786,21 +20133,24 @@
         <v>103</v>
       </c>
       <c r="J86" s="320"/>
-      <c r="K86" s="328"/>
-      <c r="L86" s="320"/>
-      <c r="M86" s="320" t="s">
-        <v>891</v>
-      </c>
+      <c r="K86" s="320"/>
+      <c r="L86" s="328"/>
+      <c r="M86" s="328"/>
+      <c r="N86" s="328"/>
       <c r="O86" s="320"/>
-      <c r="P86" s="321"/>
-      <c r="Q86" s="320"/>
+      <c r="P86" s="320" t="s">
+        <v>890</v>
+      </c>
       <c r="R86" s="320"/>
-      <c r="S86" s="317"/>
-      <c r="T86" s="298" t="s">
+      <c r="S86" s="321"/>
+      <c r="T86" s="320"/>
+      <c r="U86" s="320"/>
+      <c r="V86" s="317"/>
+      <c r="W86" s="298" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:23">
       <c r="A87" s="317" t="s">
         <v>140</v>
       </c>
@@ -19819,21 +20169,24 @@
         <v>103</v>
       </c>
       <c r="J87" s="320"/>
-      <c r="K87" s="328"/>
-      <c r="L87" s="320"/>
-      <c r="M87" s="320" t="s">
-        <v>894</v>
-      </c>
+      <c r="K87" s="320"/>
+      <c r="L87" s="328"/>
+      <c r="M87" s="328"/>
+      <c r="N87" s="328"/>
       <c r="O87" s="320"/>
-      <c r="P87" s="321"/>
-      <c r="Q87" s="320"/>
+      <c r="P87" s="320" t="s">
+        <v>893</v>
+      </c>
       <c r="R87" s="320"/>
-      <c r="S87" s="317"/>
-      <c r="T87" s="298" t="s">
+      <c r="S87" s="321"/>
+      <c r="T87" s="320"/>
+      <c r="U87" s="320"/>
+      <c r="V87" s="317"/>
+      <c r="W87" s="298" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:23">
       <c r="A88" s="317" t="s">
         <v>140</v>
       </c>
@@ -19846,31 +20199,34 @@
         <v>177</v>
       </c>
       <c r="H88" s="321" t="s">
+        <v>884</v>
+      </c>
+      <c r="I88" s="320" t="s">
+        <v>901</v>
+      </c>
+      <c r="J88" s="320" t="s">
         <v>885</v>
       </c>
-      <c r="I88" s="320" t="s">
-        <v>902</v>
-      </c>
-      <c r="J88" s="320" t="s">
-        <v>886</v>
-      </c>
-      <c r="K88" s="328"/>
-      <c r="L88" s="320"/>
-      <c r="M88" s="320"/>
+      <c r="K88" s="320"/>
+      <c r="L88" s="328"/>
+      <c r="M88" s="328"/>
+      <c r="N88" s="328"/>
       <c r="O88" s="320"/>
-      <c r="P88" s="322" t="s">
+      <c r="P88" s="320"/>
+      <c r="R88" s="320"/>
+      <c r="S88" s="322" t="s">
         <v>43</v>
       </c>
-      <c r="Q88" s="321" t="s">
+      <c r="T88" s="321" t="s">
         <v>44</v>
       </c>
-      <c r="R88" s="320" t="s">
+      <c r="U88" s="320" t="s">
         <v>178</v>
       </c>
-      <c r="S88" s="317"/>
-      <c r="T88" s="298"/>
-    </row>
-    <row r="89" spans="1:20">
+      <c r="V88" s="317"/>
+      <c r="W88" s="298"/>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89" s="317" t="s">
         <v>140</v>
       </c>
@@ -19883,25 +20239,28 @@
         <v>179</v>
       </c>
       <c r="H89" s="321" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I89" s="320" t="s">
         <v>103</v>
       </c>
       <c r="J89" s="320"/>
-      <c r="K89" s="328"/>
-      <c r="L89" s="320"/>
-      <c r="M89" s="320" t="s">
-        <v>891</v>
-      </c>
+      <c r="K89" s="320"/>
+      <c r="L89" s="328"/>
+      <c r="M89" s="328"/>
+      <c r="N89" s="328"/>
       <c r="O89" s="320"/>
-      <c r="P89" s="321"/>
-      <c r="Q89" s="320"/>
+      <c r="P89" s="320" t="s">
+        <v>890</v>
+      </c>
       <c r="R89" s="320"/>
-      <c r="S89" s="317"/>
-      <c r="T89" s="298"/>
-    </row>
-    <row r="90" spans="1:20">
+      <c r="S89" s="321"/>
+      <c r="T89" s="320"/>
+      <c r="U89" s="320"/>
+      <c r="V89" s="317"/>
+      <c r="W89" s="298"/>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90" s="317" t="s">
         <v>140</v>
       </c>
@@ -19914,31 +20273,34 @@
         <v>180</v>
       </c>
       <c r="H90" s="321" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I90" s="320" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J90" s="320" t="s">
-        <v>886</v>
-      </c>
-      <c r="K90" s="328"/>
-      <c r="L90" s="320"/>
-      <c r="M90" s="320"/>
+        <v>885</v>
+      </c>
+      <c r="K90" s="320"/>
+      <c r="L90" s="328"/>
+      <c r="M90" s="328"/>
+      <c r="N90" s="328"/>
       <c r="O90" s="320"/>
-      <c r="P90" s="322" t="s">
+      <c r="P90" s="320"/>
+      <c r="R90" s="320"/>
+      <c r="S90" s="322" t="s">
         <v>43</v>
       </c>
-      <c r="Q90" s="321" t="s">
+      <c r="T90" s="321" t="s">
         <v>44</v>
       </c>
-      <c r="R90" s="320" t="s">
+      <c r="U90" s="320" t="s">
         <v>178</v>
       </c>
-      <c r="S90" s="317"/>
-      <c r="T90" s="298"/>
-    </row>
-    <row r="91" spans="1:20">
+      <c r="V90" s="317"/>
+      <c r="W90" s="298"/>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91" s="317" t="s">
         <v>140</v>
       </c>
@@ -19951,25 +20313,28 @@
         <v>181</v>
       </c>
       <c r="H91" s="321" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I91" s="320" t="s">
         <v>103</v>
       </c>
       <c r="J91" s="320"/>
-      <c r="K91" s="328"/>
-      <c r="L91" s="320"/>
-      <c r="M91" s="320" t="s">
-        <v>891</v>
-      </c>
+      <c r="K91" s="320"/>
+      <c r="L91" s="328"/>
+      <c r="M91" s="328"/>
+      <c r="N91" s="328"/>
       <c r="O91" s="320"/>
-      <c r="P91" s="321"/>
-      <c r="Q91" s="320"/>
+      <c r="P91" s="320" t="s">
+        <v>890</v>
+      </c>
       <c r="R91" s="320"/>
-      <c r="S91" s="317"/>
-      <c r="T91" s="298"/>
-    </row>
-    <row r="92" spans="1:20">
+      <c r="S91" s="321"/>
+      <c r="T91" s="320"/>
+      <c r="U91" s="320"/>
+      <c r="V91" s="317"/>
+      <c r="W91" s="298"/>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92" s="317" t="s">
         <v>140</v>
       </c>
@@ -19988,16 +20353,19 @@
         <v>119</v>
       </c>
       <c r="J92" s="320"/>
-      <c r="K92" s="328"/>
-      <c r="L92" s="320"/>
+      <c r="K92" s="320"/>
+      <c r="L92" s="328"/>
+      <c r="M92" s="328"/>
+      <c r="N92" s="328"/>
       <c r="O92" s="320"/>
-      <c r="P92" s="321"/>
-      <c r="Q92" s="320"/>
       <c r="R92" s="320"/>
-      <c r="S92" s="317"/>
-      <c r="T92" s="298"/>
-    </row>
-    <row r="93" spans="1:20">
+      <c r="S92" s="321"/>
+      <c r="T92" s="320"/>
+      <c r="U92" s="320"/>
+      <c r="V92" s="317"/>
+      <c r="W92" s="298"/>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93" s="317" t="s">
         <v>140</v>
       </c>
@@ -20010,30 +20378,33 @@
         <v>183</v>
       </c>
       <c r="H93" s="321" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I93" s="320" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J93" s="320" t="s">
-        <v>886</v>
-      </c>
-      <c r="K93" s="328"/>
-      <c r="L93" s="320"/>
+        <v>885</v>
+      </c>
+      <c r="K93" s="320"/>
+      <c r="L93" s="328"/>
+      <c r="M93" s="328"/>
+      <c r="N93" s="328"/>
       <c r="O93" s="320"/>
-      <c r="P93" s="322" t="s">
+      <c r="R93" s="320"/>
+      <c r="S93" s="322" t="s">
         <v>43</v>
       </c>
-      <c r="Q93" s="321" t="s">
+      <c r="T93" s="321" t="s">
         <v>44</v>
       </c>
-      <c r="R93" s="320" t="s">
+      <c r="U93" s="320" t="s">
         <v>178</v>
       </c>
-      <c r="S93" s="317"/>
-      <c r="T93" s="298"/>
-    </row>
-    <row r="94" spans="1:20">
+      <c r="V93" s="317"/>
+      <c r="W93" s="298"/>
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94" s="317" t="s">
         <v>140</v>
       </c>
@@ -20052,16 +20423,19 @@
         <v>54</v>
       </c>
       <c r="J94" s="320"/>
-      <c r="K94" s="328"/>
-      <c r="L94" s="320"/>
+      <c r="K94" s="320"/>
+      <c r="L94" s="328"/>
+      <c r="M94" s="328"/>
+      <c r="N94" s="328"/>
       <c r="O94" s="320"/>
-      <c r="P94" s="321"/>
-      <c r="Q94" s="320"/>
       <c r="R94" s="320"/>
-      <c r="S94" s="317"/>
-      <c r="T94" s="298"/>
-    </row>
-    <row r="95" spans="1:20">
+      <c r="S94" s="321"/>
+      <c r="T94" s="320"/>
+      <c r="U94" s="320"/>
+      <c r="V94" s="317"/>
+      <c r="W94" s="298"/>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95" s="317" t="s">
         <v>140</v>
       </c>
@@ -20080,16 +20454,19 @@
         <v>119</v>
       </c>
       <c r="J95" s="320"/>
-      <c r="K95" s="328"/>
-      <c r="L95" s="320"/>
+      <c r="K95" s="320"/>
+      <c r="L95" s="328"/>
+      <c r="M95" s="328"/>
+      <c r="N95" s="328"/>
       <c r="O95" s="320"/>
-      <c r="P95" s="321"/>
-      <c r="Q95" s="320"/>
       <c r="R95" s="320"/>
-      <c r="S95" s="317"/>
-      <c r="T95" s="298"/>
-    </row>
-    <row r="96" spans="1:20">
+      <c r="S95" s="321"/>
+      <c r="T95" s="320"/>
+      <c r="U95" s="320"/>
+      <c r="V95" s="317"/>
+      <c r="W95" s="298"/>
+    </row>
+    <row r="96" spans="1:23">
       <c r="A96" s="317" t="s">
         <v>140</v>
       </c>
@@ -20102,22 +20479,25 @@
         <v>187</v>
       </c>
       <c r="H96" s="321" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I96" s="320" t="s">
         <v>119</v>
       </c>
       <c r="J96" s="320"/>
-      <c r="K96" s="328"/>
-      <c r="L96" s="320"/>
+      <c r="K96" s="320"/>
+      <c r="L96" s="328"/>
+      <c r="M96" s="328"/>
+      <c r="N96" s="328"/>
       <c r="O96" s="320"/>
-      <c r="P96" s="321"/>
-      <c r="Q96" s="320"/>
       <c r="R96" s="320"/>
-      <c r="S96" s="317"/>
-      <c r="T96" s="298"/>
-    </row>
-    <row r="97" spans="1:20">
+      <c r="S96" s="321"/>
+      <c r="T96" s="320"/>
+      <c r="U96" s="320"/>
+      <c r="V96" s="317"/>
+      <c r="W96" s="298"/>
+    </row>
+    <row r="97" spans="1:23">
       <c r="A97" s="317" t="s">
         <v>140</v>
       </c>
@@ -20130,22 +20510,25 @@
         <v>188</v>
       </c>
       <c r="H97" s="321" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I97" s="320" t="s">
         <v>54</v>
       </c>
       <c r="J97" s="320"/>
-      <c r="K97" s="328"/>
-      <c r="L97" s="320"/>
+      <c r="K97" s="320"/>
+      <c r="L97" s="328"/>
+      <c r="M97" s="328"/>
+      <c r="N97" s="328"/>
       <c r="O97" s="320"/>
-      <c r="P97" s="321"/>
-      <c r="Q97" s="320"/>
       <c r="R97" s="320"/>
-      <c r="S97" s="317"/>
-      <c r="T97" s="298"/>
-    </row>
-    <row r="98" spans="1:20">
+      <c r="S97" s="321"/>
+      <c r="T97" s="320"/>
+      <c r="U97" s="320"/>
+      <c r="V97" s="317"/>
+      <c r="W97" s="298"/>
+    </row>
+    <row r="98" spans="1:23">
       <c r="A98" s="317" t="s">
         <v>140</v>
       </c>
@@ -20158,22 +20541,25 @@
         <v>189</v>
       </c>
       <c r="H98" s="321" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I98" s="320" t="s">
         <v>119</v>
       </c>
       <c r="J98" s="320"/>
-      <c r="K98" s="328"/>
-      <c r="L98" s="320"/>
+      <c r="K98" s="320"/>
+      <c r="L98" s="328"/>
+      <c r="M98" s="328"/>
+      <c r="N98" s="328"/>
       <c r="O98" s="320"/>
-      <c r="P98" s="321"/>
-      <c r="Q98" s="320"/>
       <c r="R98" s="320"/>
-      <c r="S98" s="317"/>
-      <c r="T98" s="298"/>
-    </row>
-    <row r="99" spans="1:20">
+      <c r="S98" s="321"/>
+      <c r="T98" s="320"/>
+      <c r="U98" s="320"/>
+      <c r="V98" s="317"/>
+      <c r="W98" s="298"/>
+    </row>
+    <row r="99" spans="1:23">
       <c r="A99" s="317" t="s">
         <v>140</v>
       </c>
@@ -20186,22 +20572,25 @@
         <v>190</v>
       </c>
       <c r="H99" s="321" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I99" s="320" t="s">
         <v>54</v>
       </c>
       <c r="J99" s="320"/>
-      <c r="K99" s="328"/>
-      <c r="L99" s="320"/>
+      <c r="K99" s="320"/>
+      <c r="L99" s="328"/>
+      <c r="M99" s="328"/>
+      <c r="N99" s="328"/>
       <c r="O99" s="320"/>
-      <c r="P99" s="321"/>
-      <c r="Q99" s="320"/>
       <c r="R99" s="320"/>
-      <c r="S99" s="317"/>
-      <c r="T99" s="298"/>
-    </row>
-    <row r="100" spans="1:20">
+      <c r="S99" s="321"/>
+      <c r="T99" s="320"/>
+      <c r="U99" s="320"/>
+      <c r="V99" s="317"/>
+      <c r="W99" s="298"/>
+    </row>
+    <row r="100" spans="1:23">
       <c r="A100" s="317" t="s">
         <v>191</v>
       </c>
@@ -20226,16 +20615,19 @@
         <v>119</v>
       </c>
       <c r="J100" s="320"/>
-      <c r="K100" s="328"/>
-      <c r="L100" s="320"/>
+      <c r="K100" s="320"/>
+      <c r="L100" s="328"/>
+      <c r="M100" s="328"/>
+      <c r="N100" s="328"/>
       <c r="O100" s="320"/>
-      <c r="P100" s="321"/>
-      <c r="Q100" s="320"/>
       <c r="R100" s="320"/>
-      <c r="S100" s="317"/>
-      <c r="T100" s="298"/>
-    </row>
-    <row r="101" spans="1:20">
+      <c r="S100" s="321"/>
+      <c r="T100" s="320"/>
+      <c r="U100" s="320"/>
+      <c r="V100" s="317"/>
+      <c r="W100" s="298"/>
+    </row>
+    <row r="101" spans="1:23">
       <c r="A101" s="317" t="s">
         <v>191</v>
       </c>
@@ -20248,22 +20640,25 @@
         <v>193</v>
       </c>
       <c r="H101" s="321" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I101" s="320" t="s">
         <v>120</v>
       </c>
       <c r="J101" s="320"/>
-      <c r="K101" s="328"/>
-      <c r="L101" s="320"/>
+      <c r="K101" s="320"/>
+      <c r="L101" s="328"/>
+      <c r="M101" s="328"/>
+      <c r="N101" s="328"/>
       <c r="O101" s="320"/>
-      <c r="P101" s="321"/>
-      <c r="Q101" s="320"/>
       <c r="R101" s="320"/>
-      <c r="S101" s="317"/>
-      <c r="T101" s="298"/>
-    </row>
-    <row r="102" spans="1:20">
+      <c r="S101" s="321"/>
+      <c r="T101" s="320"/>
+      <c r="U101" s="320"/>
+      <c r="V101" s="317"/>
+      <c r="W101" s="298"/>
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102" s="317" t="s">
         <v>191</v>
       </c>
@@ -20282,16 +20677,19 @@
         <v>119</v>
       </c>
       <c r="J102" s="320"/>
-      <c r="K102" s="328"/>
-      <c r="L102" s="320"/>
+      <c r="K102" s="320"/>
+      <c r="L102" s="328"/>
+      <c r="M102" s="328"/>
+      <c r="N102" s="328"/>
       <c r="O102" s="320"/>
-      <c r="P102" s="321"/>
-      <c r="Q102" s="320"/>
       <c r="R102" s="320"/>
-      <c r="S102" s="317"/>
-      <c r="T102" s="298"/>
-    </row>
-    <row r="103" spans="1:20">
+      <c r="S102" s="321"/>
+      <c r="T102" s="320"/>
+      <c r="U102" s="320"/>
+      <c r="V102" s="317"/>
+      <c r="W102" s="298"/>
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103" s="317" t="s">
         <v>191</v>
       </c>
@@ -20304,22 +20702,25 @@
         <v>193</v>
       </c>
       <c r="H103" s="321" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I103" s="320" t="s">
         <v>120</v>
       </c>
       <c r="J103" s="320"/>
-      <c r="K103" s="328"/>
-      <c r="L103" s="320"/>
+      <c r="K103" s="320"/>
+      <c r="L103" s="328"/>
+      <c r="M103" s="328"/>
+      <c r="N103" s="328"/>
       <c r="O103" s="320"/>
-      <c r="P103" s="321"/>
-      <c r="Q103" s="320"/>
       <c r="R103" s="320"/>
-      <c r="S103" s="317"/>
-      <c r="T103" s="298"/>
-    </row>
-    <row r="104" spans="1:20">
+      <c r="S103" s="321"/>
+      <c r="T103" s="320"/>
+      <c r="U103" s="320"/>
+      <c r="V103" s="317"/>
+      <c r="W103" s="298"/>
+    </row>
+    <row r="104" spans="1:23">
       <c r="A104" s="317" t="s">
         <v>195</v>
       </c>
@@ -20344,16 +20745,19 @@
         <v>119</v>
       </c>
       <c r="J104" s="320"/>
-      <c r="K104" s="328"/>
-      <c r="L104" s="320"/>
+      <c r="K104" s="320"/>
+      <c r="L104" s="328"/>
+      <c r="M104" s="328"/>
+      <c r="N104" s="328"/>
       <c r="O104" s="320"/>
-      <c r="P104" s="321"/>
-      <c r="Q104" s="320"/>
       <c r="R104" s="320"/>
-      <c r="S104" s="317"/>
-      <c r="T104" s="298"/>
-    </row>
-    <row r="105" spans="1:20">
+      <c r="S104" s="321"/>
+      <c r="T104" s="320"/>
+      <c r="U104" s="320"/>
+      <c r="V104" s="317"/>
+      <c r="W104" s="298"/>
+    </row>
+    <row r="105" spans="1:23">
       <c r="A105" s="317" t="s">
         <v>195</v>
       </c>
@@ -20366,22 +20770,25 @@
         <v>193</v>
       </c>
       <c r="H105" s="321" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I105" s="320" t="s">
         <v>120</v>
       </c>
       <c r="J105" s="320"/>
-      <c r="K105" s="328"/>
-      <c r="L105" s="320"/>
+      <c r="K105" s="320"/>
+      <c r="L105" s="328"/>
+      <c r="M105" s="328"/>
+      <c r="N105" s="328"/>
       <c r="O105" s="320"/>
-      <c r="P105" s="321"/>
-      <c r="Q105" s="320"/>
       <c r="R105" s="320"/>
-      <c r="S105" s="317"/>
-      <c r="T105" s="298"/>
-    </row>
-    <row r="106" spans="1:20">
+      <c r="S105" s="321"/>
+      <c r="T105" s="320"/>
+      <c r="U105" s="320"/>
+      <c r="V105" s="317"/>
+      <c r="W105" s="298"/>
+    </row>
+    <row r="106" spans="1:23">
       <c r="A106" s="313"/>
       <c r="B106" s="313"/>
       <c r="C106" s="313"/>
@@ -20392,20 +20799,23 @@
       <c r="H106" s="314"/>
       <c r="I106" s="314"/>
       <c r="J106" s="314"/>
-      <c r="K106" s="315"/>
-      <c r="L106" s="314"/>
+      <c r="K106" s="314"/>
+      <c r="L106" s="315"/>
+      <c r="M106" s="315"/>
+      <c r="N106" s="315"/>
       <c r="O106" s="314"/>
-      <c r="P106" s="316"/>
-      <c r="Q106" s="314"/>
       <c r="R106" s="314"/>
-      <c r="S106" s="313"/>
+      <c r="S106" s="316"/>
+      <c r="T106" s="314"/>
+      <c r="U106" s="314"/>
+      <c r="V106" s="313"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U105" xr:uid="{56209056-1B82-49D9-8A5A-712FECC74603}"/>
+  <autoFilter ref="A1:X105" xr:uid="{56209056-1B82-49D9-8A5A-712FECC74603}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="T57" location="印字標籤檔案!A1" display="參考 印字標籤檔案" xr:uid="{8D1C0463-5B6F-4A87-9AC6-1F52575C4B31}"/>
-    <hyperlink ref="T53" location="印字標籤檔案!A1" display="參考 印字標籤檔案" xr:uid="{3788DC59-D0E6-4952-8F69-865840635AB1}"/>
+    <hyperlink ref="W57" location="印字標籤檔案!A1" display="參考 印字標籤檔案" xr:uid="{8D1C0463-5B6F-4A87-9AC6-1F52575C4B31}"/>
+    <hyperlink ref="W53" location="印字標籤檔案!A1" display="參考 印字標籤檔案" xr:uid="{3788DC59-D0E6-4952-8F69-865840635AB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
